--- a/excel/finished/焦化/CK67-粗苯蒸馏（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-粗苯蒸馏（日）报表设计.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="5.粗苯蒸馏（日）" sheetId="1" r:id="rId1"/>
     <sheet name="_cuben_day_hour" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -539,12 +542,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,15 +562,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -603,11 +599,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -621,19 +612,104 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,51 +724,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -710,14 +753,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -726,58 +761,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -806,25 +804,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,49 +828,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,25 +888,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,67 +978,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,6 +1025,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border diagonalDown="1">
       <left style="medium">
         <color auto="1"/>
@@ -1245,15 +1252,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -1363,6 +1361,65 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1382,33 +1439,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1424,43 +1454,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1470,10 +1468,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1482,140 +1480,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1625,90 +1623,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1718,16 +1704,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1736,7 +1725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1744,8 +1733,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2076,7 +2065,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -2210,6 +2199,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="_metadata"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2472,8 +2474,8 @@
   <sheetPr/>
   <dimension ref="B1:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2521,290 +2523,293 @@
     </row>
     <row r="2" customFormat="1" ht="16.5" spans="2:33">
       <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="29" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="e">
+        <f>[1]_metadata!B1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
     </row>
     <row r="3" customFormat="1" ht="14.1" customHeight="1" spans="2:37">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="38" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="40"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="37"/>
     </row>
     <row r="4" customFormat="1" spans="2:37">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11" t="s">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="12" t="s">
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AB4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AC4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AD4" s="12" t="s">
+      <c r="AD4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AE4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="43"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="40"/>
     </row>
     <row r="5" customFormat="1" spans="2:37">
-      <c r="B5" s="10"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="13" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="U5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="12" t="s">
+      <c r="W5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="26" t="s">
+      <c r="X5" s="10"/>
+      <c r="Y5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="12" t="s">
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AF5" s="31" t="s">
+      <c r="AF5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="43"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="40"/>
     </row>
     <row r="6" customFormat="1" ht="22.5" spans="2:37">
-      <c r="B6" s="10"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="26" t="s">
+      <c r="K6" s="11"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="X6" s="26" t="s">
+      <c r="X6" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" s="26" t="s">
+      <c r="Y6" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="Z6" s="26" t="s">
+      <c r="Z6" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="44" t="s">
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="46" t="s">
+      <c r="AH6" s="42"/>
+      <c r="AI6" s="43" t="s">
         <v>45</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AK6" s="47" t="s">
+      <c r="AK6" s="44" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="24" customHeight="1" spans="2:37">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2897,14 +2902,14 @@
       <c r="AF7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG7" s="48"/>
+      <c r="AG7" s="45"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
-      <c r="AK7" s="47"/>
+      <c r="AK7" s="44"/>
     </row>
     <row r="8" customFormat="1" spans="2:37">
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="str">
@@ -3027,7 +3032,7 @@
         <f>IF(_cuben_day_hour!AD2="","",_cuben_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG8" s="41" t="s">
+      <c r="AG8" s="38" t="s">
         <v>79</v>
       </c>
       <c r="AH8" s="1" t="s">
@@ -3035,10 +3040,10 @@
       </c>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
-      <c r="AK8" s="47"/>
+      <c r="AK8" s="44"/>
     </row>
     <row r="9" customFormat="1" spans="2:37">
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>0.0416666666666667</v>
       </c>
       <c r="C9" s="1" t="str">
@@ -3161,16 +3166,16 @@
         <f>IF(_cuben_day_hour!AD3="","",_cuben_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="49" t="s">
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="46" t="s">
         <v>81</v>
       </c>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
-      <c r="AK9" s="47"/>
+      <c r="AK9" s="44"/>
     </row>
     <row r="10" customFormat="1" spans="2:37">
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>0.0833333333333333</v>
       </c>
       <c r="C10" s="1" t="str">
@@ -3293,16 +3298,16 @@
         <f>IF(_cuben_day_hour!AD4="","",_cuben_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="49" t="s">
+      <c r="AG10" s="38"/>
+      <c r="AH10" s="46" t="s">
         <v>82</v>
       </c>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="47"/>
+      <c r="AK10" s="44"/>
     </row>
     <row r="11" customFormat="1" spans="2:37">
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <v>0.125</v>
       </c>
       <c r="C11" s="1" t="str">
@@ -3425,16 +3430,16 @@
         <f>IF(_cuben_day_hour!AD5="","",_cuben_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="49" t="s">
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="46" t="s">
         <v>83</v>
       </c>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
-      <c r="AK11" s="47"/>
+      <c r="AK11" s="44"/>
     </row>
     <row r="12" customFormat="1" spans="2:37">
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>0.166666666666667</v>
       </c>
       <c r="C12" s="1" t="str">
@@ -3557,16 +3562,16 @@
         <f>IF(_cuben_day_hour!AD6="","",_cuben_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="49" t="s">
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="46" t="s">
         <v>84</v>
       </c>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
-      <c r="AK12" s="47"/>
+      <c r="AK12" s="44"/>
     </row>
     <row r="13" customFormat="1" spans="2:37">
-      <c r="B13" s="15">
+      <c r="B13" s="13">
         <v>0.208333333333333</v>
       </c>
       <c r="C13" s="1" t="str">
@@ -3689,16 +3694,16 @@
         <f>IF(_cuben_day_hour!AD7="","",_cuben_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="49" t="s">
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="46" t="s">
         <v>85</v>
       </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
-      <c r="AK13" s="47"/>
+      <c r="AK13" s="44"/>
     </row>
     <row r="14" customFormat="1" spans="2:37">
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>0.25</v>
       </c>
       <c r="C14" s="1" t="str">
@@ -3821,14 +3826,14 @@
         <f>IF(_cuben_day_hour!AD8="","",_cuben_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG14" s="50"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="52"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="49"/>
     </row>
     <row r="15" customFormat="1" spans="2:37">
-      <c r="B15" s="15">
+      <c r="B15" s="13">
         <v>0.291666666666667</v>
       </c>
       <c r="C15" s="1" t="str">
@@ -3951,14 +3956,14 @@
         <f>IF(_cuben_day_hour!AD9="","",_cuben_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="54"/>
-      <c r="AI15" s="54"/>
-      <c r="AJ15" s="54"/>
-      <c r="AK15" s="55"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="52"/>
     </row>
     <row r="16" customFormat="1" spans="2:37">
-      <c r="B16" s="15">
+      <c r="B16" s="13">
         <v>0.333333333333333</v>
       </c>
       <c r="C16" s="1" t="str">
@@ -4081,14 +4086,14 @@
         <f>IF(_cuben_day_hour!AD10="","",_cuben_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG16" s="53"/>
-      <c r="AH16" s="54"/>
-      <c r="AI16" s="54"/>
-      <c r="AJ16" s="54"/>
-      <c r="AK16" s="55"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="52"/>
     </row>
     <row r="17" customFormat="1" spans="2:37">
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <v>0.375</v>
       </c>
       <c r="C17" s="1" t="str">
@@ -4211,14 +4216,14 @@
         <f>IF(_cuben_day_hour!AD11="","",_cuben_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="54"/>
-      <c r="AJ17" s="54"/>
-      <c r="AK17" s="55"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="52"/>
     </row>
     <row r="18" customFormat="1" spans="2:37">
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <v>0.416666666666666</v>
       </c>
       <c r="C18" s="1" t="str">
@@ -4341,14 +4346,14 @@
         <f>IF(_cuben_day_hour!AD12="","",_cuben_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG18" s="53"/>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="54"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="55"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="52"/>
     </row>
     <row r="19" customFormat="1" spans="2:37">
-      <c r="B19" s="15">
+      <c r="B19" s="13">
         <v>0.458333333333333</v>
       </c>
       <c r="C19" s="1" t="str">
@@ -4471,14 +4476,14 @@
         <f>IF(_cuben_day_hour!AD13="","",_cuben_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG19" s="53"/>
-      <c r="AH19" s="54"/>
-      <c r="AI19" s="54"/>
-      <c r="AJ19" s="54"/>
-      <c r="AK19" s="55"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="51"/>
+      <c r="AJ19" s="51"/>
+      <c r="AK19" s="52"/>
     </row>
     <row r="20" customFormat="1" spans="2:37">
-      <c r="B20" s="15">
+      <c r="B20" s="13">
         <v>0.5</v>
       </c>
       <c r="C20" s="1" t="str">
@@ -4601,14 +4606,14 @@
         <f>IF(_cuben_day_hour!AD14="","",_cuben_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG20" s="53"/>
-      <c r="AH20" s="54"/>
-      <c r="AI20" s="54"/>
-      <c r="AJ20" s="54"/>
-      <c r="AK20" s="55"/>
+      <c r="AG20" s="50"/>
+      <c r="AH20" s="51"/>
+      <c r="AI20" s="51"/>
+      <c r="AJ20" s="51"/>
+      <c r="AK20" s="52"/>
     </row>
     <row r="21" customFormat="1" spans="2:37">
-      <c r="B21" s="15">
+      <c r="B21" s="13">
         <v>0.541666666666666</v>
       </c>
       <c r="C21" s="1" t="str">
@@ -4731,14 +4736,14 @@
         <f>IF(_cuben_day_hour!AD15="","",_cuben_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="55"/>
+      <c r="AG21" s="50"/>
+      <c r="AH21" s="51"/>
+      <c r="AI21" s="51"/>
+      <c r="AJ21" s="51"/>
+      <c r="AK21" s="52"/>
     </row>
     <row r="22" customFormat="1" spans="2:37">
-      <c r="B22" s="15">
+      <c r="B22" s="13">
         <v>0.583333333333333</v>
       </c>
       <c r="C22" s="1" t="str">
@@ -4861,14 +4866,14 @@
         <f>IF(_cuben_day_hour!AD16="","",_cuben_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG22" s="53"/>
-      <c r="AH22" s="54"/>
-      <c r="AI22" s="54"/>
-      <c r="AJ22" s="54"/>
-      <c r="AK22" s="55"/>
+      <c r="AG22" s="50"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="52"/>
     </row>
     <row r="23" customFormat="1" spans="2:37">
-      <c r="B23" s="15">
+      <c r="B23" s="13">
         <v>0.625</v>
       </c>
       <c r="C23" s="1" t="str">
@@ -4991,14 +4996,14 @@
         <f>IF(_cuben_day_hour!AD17="","",_cuben_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="54"/>
-      <c r="AI23" s="54"/>
-      <c r="AJ23" s="54"/>
-      <c r="AK23" s="55"/>
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="52"/>
     </row>
     <row r="24" customFormat="1" spans="2:37">
-      <c r="B24" s="15">
+      <c r="B24" s="13">
         <v>0.666666666666667</v>
       </c>
       <c r="C24" s="1" t="str">
@@ -5121,14 +5126,14 @@
         <f>IF(_cuben_day_hour!AD18="","",_cuben_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="54"/>
-      <c r="AI24" s="54"/>
-      <c r="AJ24" s="54"/>
-      <c r="AK24" s="55"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="51"/>
+      <c r="AI24" s="51"/>
+      <c r="AJ24" s="51"/>
+      <c r="AK24" s="52"/>
     </row>
     <row r="25" customFormat="1" spans="2:37">
-      <c r="B25" s="15">
+      <c r="B25" s="13">
         <v>0.708333333333333</v>
       </c>
       <c r="C25" s="1" t="str">
@@ -5251,14 +5256,14 @@
         <f>IF(_cuben_day_hour!AD19="","",_cuben_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="54"/>
-      <c r="AI25" s="54"/>
-      <c r="AJ25" s="54"/>
-      <c r="AK25" s="55"/>
+      <c r="AG25" s="50"/>
+      <c r="AH25" s="51"/>
+      <c r="AI25" s="51"/>
+      <c r="AJ25" s="51"/>
+      <c r="AK25" s="52"/>
     </row>
     <row r="26" customFormat="1" spans="2:37">
-      <c r="B26" s="15">
+      <c r="B26" s="13">
         <v>0.75</v>
       </c>
       <c r="C26" s="1" t="str">
@@ -5381,14 +5386,14 @@
         <f>IF(_cuben_day_hour!AD20="","",_cuben_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="54"/>
-      <c r="AJ26" s="54"/>
-      <c r="AK26" s="55"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="52"/>
     </row>
     <row r="27" customFormat="1" spans="2:37">
-      <c r="B27" s="15">
+      <c r="B27" s="13">
         <v>0.791666666666667</v>
       </c>
       <c r="C27" s="1" t="str">
@@ -5511,14 +5516,14 @@
         <f>IF(_cuben_day_hour!AD21="","",_cuben_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG27" s="53"/>
-      <c r="AH27" s="54"/>
-      <c r="AI27" s="54"/>
-      <c r="AJ27" s="54"/>
-      <c r="AK27" s="55"/>
+      <c r="AG27" s="50"/>
+      <c r="AH27" s="51"/>
+      <c r="AI27" s="51"/>
+      <c r="AJ27" s="51"/>
+      <c r="AK27" s="52"/>
     </row>
     <row r="28" customFormat="1" spans="2:37">
-      <c r="B28" s="15">
+      <c r="B28" s="13">
         <v>0.833333333333333</v>
       </c>
       <c r="C28" s="1" t="str">
@@ -5641,14 +5646,14 @@
         <f>IF(_cuben_day_hour!AD22="","",_cuben_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="54"/>
-      <c r="AI28" s="54"/>
-      <c r="AJ28" s="54"/>
-      <c r="AK28" s="55"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="52"/>
     </row>
     <row r="29" customFormat="1" spans="2:37">
-      <c r="B29" s="15">
+      <c r="B29" s="13">
         <v>0.875</v>
       </c>
       <c r="C29" s="1" t="str">
@@ -5771,14 +5776,14 @@
         <f>IF(_cuben_day_hour!AD23="","",_cuben_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="54"/>
-      <c r="AI29" s="54"/>
-      <c r="AJ29" s="54"/>
-      <c r="AK29" s="55"/>
+      <c r="AG29" s="50"/>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="51"/>
+      <c r="AK29" s="52"/>
     </row>
     <row r="30" customFormat="1" spans="2:37">
-      <c r="B30" s="15">
+      <c r="B30" s="13">
         <v>0.916666666666667</v>
       </c>
       <c r="C30" s="1" t="str">
@@ -5901,14 +5906,14 @@
         <f>IF(_cuben_day_hour!AD24="","",_cuben_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="54"/>
-      <c r="AI30" s="54"/>
-      <c r="AJ30" s="54"/>
-      <c r="AK30" s="55"/>
+      <c r="AG30" s="50"/>
+      <c r="AH30" s="51"/>
+      <c r="AI30" s="51"/>
+      <c r="AJ30" s="51"/>
+      <c r="AK30" s="52"/>
     </row>
     <row r="31" customFormat="1" spans="2:37">
-      <c r="B31" s="15">
+      <c r="B31" s="13">
         <v>0.958333333333333</v>
       </c>
       <c r="C31" s="1" t="str">
@@ -6031,14 +6036,14 @@
         <f>IF(_cuben_day_hour!AD25="","",_cuben_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="54"/>
-      <c r="AI31" s="54"/>
-      <c r="AJ31" s="54"/>
-      <c r="AK31" s="55"/>
+      <c r="AG31" s="50"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="51"/>
+      <c r="AK31" s="52"/>
     </row>
     <row r="32" customFormat="1" spans="2:37">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="14" t="s">
         <v>86</v>
       </c>
       <c r="C32" s="1"/>
@@ -6071,14 +6076,14 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="2"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="54"/>
-      <c r="AI32" s="54"/>
-      <c r="AJ32" s="54"/>
-      <c r="AK32" s="55"/>
+      <c r="AG32" s="50"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="51"/>
+      <c r="AJ32" s="51"/>
+      <c r="AK32" s="52"/>
     </row>
     <row r="33" customFormat="1" spans="2:37">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="1"/>
@@ -6111,14 +6116,14 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="2"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="54"/>
-      <c r="AI33" s="54"/>
-      <c r="AJ33" s="54"/>
-      <c r="AK33" s="55"/>
+      <c r="AG33" s="50"/>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="51"/>
+      <c r="AJ33" s="51"/>
+      <c r="AK33" s="52"/>
     </row>
     <row r="34" customFormat="1" spans="2:37">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C34" s="1"/>
@@ -6151,14 +6156,14 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="53"/>
-      <c r="AH34" s="54"/>
-      <c r="AI34" s="54"/>
-      <c r="AJ34" s="54"/>
-      <c r="AK34" s="55"/>
+      <c r="AG34" s="50"/>
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="52"/>
     </row>
     <row r="35" customFormat="1" ht="14.25" spans="2:37">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="1"/>
@@ -6188,109 +6193,110 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="33"/>
-      <c r="AG35" s="53"/>
-      <c r="AH35" s="54"/>
-      <c r="AI35" s="54"/>
-      <c r="AJ35" s="54"/>
-      <c r="AK35" s="55"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="30"/>
+      <c r="AG35" s="50"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="51"/>
+      <c r="AK35" s="52"/>
     </row>
     <row r="36" customFormat="1" ht="75.6" customHeight="1" spans="2:37">
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="22" t="s">
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="22" t="s">
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="34"/>
-      <c r="AE36" s="35"/>
-      <c r="AF36" s="35"/>
-      <c r="AG36" s="54"/>
-      <c r="AH36" s="54"/>
-      <c r="AI36" s="54"/>
-      <c r="AJ36" s="54"/>
-      <c r="AK36" s="55"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="51"/>
+      <c r="AH36" s="51"/>
+      <c r="AI36" s="51"/>
+      <c r="AJ36" s="51"/>
+      <c r="AK36" s="52"/>
     </row>
     <row r="37" ht="16.5" spans="2:37">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="24" t="s">
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="24" t="s">
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="37"/>
-      <c r="AH37" s="37"/>
-      <c r="AI37" s="37"/>
-      <c r="AJ37" s="37"/>
-      <c r="AK37" s="56"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="34"/>
+      <c r="AF37" s="34"/>
+      <c r="AG37" s="34"/>
+      <c r="AH37" s="34"/>
+      <c r="AI37" s="34"/>
+      <c r="AJ37" s="34"/>
+      <c r="AK37" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="48">
     <mergeCell ref="B1:AG1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="K2:Y2"/>
-    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="C3:AF3"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="K4:O4"/>

--- a/excel/finished/焦化/CK67-粗苯蒸馏（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-粗苯蒸馏（日）报表设计.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5.粗苯蒸馏（日）" sheetId="1" r:id="rId1"/>
     <sheet name="_cuben_day_hour" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
+    <sheet name="_analysis_day_shift" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -541,11 +540,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -617,6 +617,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -632,20 +660,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -656,15 +673,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -678,10 +687,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -702,21 +712,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,21 +721,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,9 +742,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -804,13 +804,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,61 +882,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,25 +948,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,67 +978,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,6 +1368,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1375,16 +1384,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1424,6 +1433,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1438,40 +1462,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1480,140 +1480,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1662,6 +1662,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2201,19 +2204,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="_metadata"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2474,7 +2464,7 @@
   <sheetPr/>
   <dimension ref="B1:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:S2"/>
     </sheetView>
   </sheetViews>
@@ -2539,14 +2529,14 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="5" t="e">
-        <f>[1]_metadata!B1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
+      <c r="O2" s="19">
+        <f>_metadata!B1</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
@@ -2599,14 +2589,14 @@
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="35" t="s">
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="38"/>
     </row>
     <row r="4" customFormat="1" spans="2:37">
       <c r="B4" s="8"/>
@@ -2657,12 +2647,12 @@
       <c r="AE4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="40"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="41"/>
     </row>
     <row r="5" customFormat="1" spans="2:37">
       <c r="B5" s="8"/>
@@ -2693,7 +2683,7 @@
       <c r="M5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="O5" s="10" t="s">
@@ -2724,10 +2714,10 @@
         <v>33</v>
       </c>
       <c r="X5" s="10"/>
-      <c r="Y5" s="24" t="s">
+      <c r="Y5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" s="24"/>
+      <c r="Z5" s="25"/>
       <c r="AA5" s="10"/>
       <c r="AB5" s="10"/>
       <c r="AC5" s="10"/>
@@ -2735,14 +2725,14 @@
       <c r="AE5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AF5" s="28" t="s">
+      <c r="AF5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="40"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="40"/>
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="41"/>
     </row>
     <row r="6" customFormat="1" ht="22.5" spans="2:37">
       <c r="B6" s="8"/>
@@ -2767,7 +2757,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="19"/>
+      <c r="N6" s="20"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="11"/>
@@ -2776,16 +2766,16 @@
       <c r="T6" s="11"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
-      <c r="W6" s="24" t="s">
+      <c r="W6" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="X6" s="24" t="s">
+      <c r="X6" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" s="24" t="s">
+      <c r="Y6" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="Z6" s="24" t="s">
+      <c r="Z6" s="25" t="s">
         <v>43</v>
       </c>
       <c r="AA6" s="10"/>
@@ -2793,18 +2783,18 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="10"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="41" t="s">
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="43" t="s">
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="44" t="s">
         <v>45</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AK6" s="44" t="s">
+      <c r="AK6" s="45" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2902,11 +2892,11 @@
       <c r="AF7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG7" s="45"/>
+      <c r="AG7" s="46"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
-      <c r="AK7" s="44"/>
+      <c r="AK7" s="45"/>
     </row>
     <row r="8" customFormat="1" spans="2:37">
       <c r="B8" s="13">
@@ -3032,7 +3022,7 @@
         <f>IF(_cuben_day_hour!AD2="","",_cuben_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG8" s="38" t="s">
+      <c r="AG8" s="39" t="s">
         <v>79</v>
       </c>
       <c r="AH8" s="1" t="s">
@@ -3040,7 +3030,7 @@
       </c>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
-      <c r="AK8" s="44"/>
+      <c r="AK8" s="45"/>
     </row>
     <row r="9" customFormat="1" spans="2:37">
       <c r="B9" s="13">
@@ -3166,13 +3156,13 @@
         <f>IF(_cuben_day_hour!AD3="","",_cuben_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="46" t="s">
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="47" t="s">
         <v>81</v>
       </c>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
-      <c r="AK9" s="44"/>
+      <c r="AK9" s="45"/>
     </row>
     <row r="10" customFormat="1" spans="2:37">
       <c r="B10" s="13">
@@ -3298,13 +3288,13 @@
         <f>IF(_cuben_day_hour!AD4="","",_cuben_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG10" s="38"/>
-      <c r="AH10" s="46" t="s">
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="47" t="s">
         <v>82</v>
       </c>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="44"/>
+      <c r="AK10" s="45"/>
     </row>
     <row r="11" customFormat="1" spans="2:37">
       <c r="B11" s="13">
@@ -3430,13 +3420,13 @@
         <f>IF(_cuben_day_hour!AD5="","",_cuben_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="46" t="s">
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="47" t="s">
         <v>83</v>
       </c>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
-      <c r="AK11" s="44"/>
+      <c r="AK11" s="45"/>
     </row>
     <row r="12" customFormat="1" spans="2:37">
       <c r="B12" s="13">
@@ -3562,13 +3552,13 @@
         <f>IF(_cuben_day_hour!AD6="","",_cuben_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="46" t="s">
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="47" t="s">
         <v>84</v>
       </c>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
-      <c r="AK12" s="44"/>
+      <c r="AK12" s="45"/>
     </row>
     <row r="13" customFormat="1" spans="2:37">
       <c r="B13" s="13">
@@ -3694,13 +3684,13 @@
         <f>IF(_cuben_day_hour!AD7="","",_cuben_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="46" t="s">
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="47" t="s">
         <v>85</v>
       </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
-      <c r="AK13" s="44"/>
+      <c r="AK13" s="45"/>
     </row>
     <row r="14" customFormat="1" spans="2:37">
       <c r="B14" s="13">
@@ -3826,11 +3816,11 @@
         <f>IF(_cuben_day_hour!AD8="","",_cuben_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="49"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="50"/>
     </row>
     <row r="15" customFormat="1" spans="2:37">
       <c r="B15" s="13">
@@ -3956,11 +3946,11 @@
         <f>IF(_cuben_day_hour!AD9="","",_cuben_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="52"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="52"/>
+      <c r="AJ15" s="52"/>
+      <c r="AK15" s="53"/>
     </row>
     <row r="16" customFormat="1" spans="2:37">
       <c r="B16" s="13">
@@ -4086,11 +4076,11 @@
         <f>IF(_cuben_day_hour!AD10="","",_cuben_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="52"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="53"/>
     </row>
     <row r="17" customFormat="1" spans="2:37">
       <c r="B17" s="13">
@@ -4216,11 +4206,11 @@
         <f>IF(_cuben_day_hour!AD11="","",_cuben_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
-      <c r="AK17" s="52"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
+      <c r="AJ17" s="52"/>
+      <c r="AK17" s="53"/>
     </row>
     <row r="18" customFormat="1" spans="2:37">
       <c r="B18" s="13">
@@ -4346,11 +4336,11 @@
         <f>IF(_cuben_day_hour!AD12="","",_cuben_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
-      <c r="AK18" s="52"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="52"/>
+      <c r="AJ18" s="52"/>
+      <c r="AK18" s="53"/>
     </row>
     <row r="19" customFormat="1" spans="2:37">
       <c r="B19" s="13">
@@ -4476,11 +4466,11 @@
         <f>IF(_cuben_day_hour!AD13="","",_cuben_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG19" s="50"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
-      <c r="AK19" s="52"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
+      <c r="AJ19" s="52"/>
+      <c r="AK19" s="53"/>
     </row>
     <row r="20" customFormat="1" spans="2:37">
       <c r="B20" s="13">
@@ -4606,11 +4596,11 @@
         <f>IF(_cuben_day_hour!AD14="","",_cuben_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG20" s="50"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="51"/>
-      <c r="AK20" s="52"/>
+      <c r="AG20" s="51"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
+      <c r="AJ20" s="52"/>
+      <c r="AK20" s="53"/>
     </row>
     <row r="21" customFormat="1" spans="2:37">
       <c r="B21" s="13">
@@ -4736,11 +4726,11 @@
         <f>IF(_cuben_day_hour!AD15="","",_cuben_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG21" s="50"/>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="51"/>
-      <c r="AK21" s="52"/>
+      <c r="AG21" s="51"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="53"/>
     </row>
     <row r="22" customFormat="1" spans="2:37">
       <c r="B22" s="13">
@@ -4866,11 +4856,11 @@
         <f>IF(_cuben_day_hour!AD16="","",_cuben_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG22" s="50"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="52"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="52"/>
+      <c r="AI22" s="52"/>
+      <c r="AJ22" s="52"/>
+      <c r="AK22" s="53"/>
     </row>
     <row r="23" customFormat="1" spans="2:37">
       <c r="B23" s="13">
@@ -4996,11 +4986,11 @@
         <f>IF(_cuben_day_hour!AD17="","",_cuben_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG23" s="50"/>
-      <c r="AH23" s="51"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="51"/>
-      <c r="AK23" s="52"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="52"/>
+      <c r="AI23" s="52"/>
+      <c r="AJ23" s="52"/>
+      <c r="AK23" s="53"/>
     </row>
     <row r="24" customFormat="1" spans="2:37">
       <c r="B24" s="13">
@@ -5126,11 +5116,11 @@
         <f>IF(_cuben_day_hour!AD18="","",_cuben_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG24" s="50"/>
-      <c r="AH24" s="51"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="51"/>
-      <c r="AK24" s="52"/>
+      <c r="AG24" s="51"/>
+      <c r="AH24" s="52"/>
+      <c r="AI24" s="52"/>
+      <c r="AJ24" s="52"/>
+      <c r="AK24" s="53"/>
     </row>
     <row r="25" customFormat="1" spans="2:37">
       <c r="B25" s="13">
@@ -5256,11 +5246,11 @@
         <f>IF(_cuben_day_hour!AD19="","",_cuben_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG25" s="50"/>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="52"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="52"/>
+      <c r="AK25" s="53"/>
     </row>
     <row r="26" customFormat="1" spans="2:37">
       <c r="B26" s="13">
@@ -5386,11 +5376,11 @@
         <f>IF(_cuben_day_hour!AD20="","",_cuben_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="52"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="53"/>
     </row>
     <row r="27" customFormat="1" spans="2:37">
       <c r="B27" s="13">
@@ -5516,11 +5506,11 @@
         <f>IF(_cuben_day_hour!AD21="","",_cuben_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG27" s="50"/>
-      <c r="AH27" s="51"/>
-      <c r="AI27" s="51"/>
-      <c r="AJ27" s="51"/>
-      <c r="AK27" s="52"/>
+      <c r="AG27" s="51"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="53"/>
     </row>
     <row r="28" customFormat="1" spans="2:37">
       <c r="B28" s="13">
@@ -5646,11 +5636,11 @@
         <f>IF(_cuben_day_hour!AD22="","",_cuben_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="52"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="53"/>
     </row>
     <row r="29" customFormat="1" spans="2:37">
       <c r="B29" s="13">
@@ -5776,11 +5766,11 @@
         <f>IF(_cuben_day_hour!AD23="","",_cuben_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG29" s="50"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="51"/>
-      <c r="AK29" s="52"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="53"/>
     </row>
     <row r="30" customFormat="1" spans="2:37">
       <c r="B30" s="13">
@@ -5906,11 +5896,11 @@
         <f>IF(_cuben_day_hour!AD24="","",_cuben_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG30" s="50"/>
-      <c r="AH30" s="51"/>
-      <c r="AI30" s="51"/>
-      <c r="AJ30" s="51"/>
-      <c r="AK30" s="52"/>
+      <c r="AG30" s="51"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="53"/>
     </row>
     <row r="31" customFormat="1" spans="2:37">
       <c r="B31" s="13">
@@ -6036,11 +6026,11 @@
         <f>IF(_cuben_day_hour!AD25="","",_cuben_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG31" s="50"/>
-      <c r="AH31" s="51"/>
-      <c r="AI31" s="51"/>
-      <c r="AJ31" s="51"/>
-      <c r="AK31" s="52"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="53"/>
     </row>
     <row r="32" customFormat="1" spans="2:37">
       <c r="B32" s="14" t="s">
@@ -6076,11 +6066,11 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="2"/>
-      <c r="AG32" s="50"/>
-      <c r="AH32" s="51"/>
-      <c r="AI32" s="51"/>
-      <c r="AJ32" s="51"/>
-      <c r="AK32" s="52"/>
+      <c r="AG32" s="51"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="53"/>
     </row>
     <row r="33" customFormat="1" spans="2:37">
       <c r="B33" s="14" t="s">
@@ -6116,11 +6106,11 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="2"/>
-      <c r="AG33" s="50"/>
-      <c r="AH33" s="51"/>
-      <c r="AI33" s="51"/>
-      <c r="AJ33" s="51"/>
-      <c r="AK33" s="52"/>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="53"/>
     </row>
     <row r="34" customFormat="1" spans="2:37">
       <c r="B34" s="14" t="s">
@@ -6156,11 +6146,11 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="50"/>
-      <c r="AH34" s="51"/>
-      <c r="AI34" s="51"/>
-      <c r="AJ34" s="51"/>
-      <c r="AK34" s="52"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="52"/>
+      <c r="AI34" s="52"/>
+      <c r="AJ34" s="52"/>
+      <c r="AK34" s="53"/>
     </row>
     <row r="35" customFormat="1" ht="14.25" spans="2:37">
       <c r="B35" s="14" t="s">
@@ -6193,14 +6183,14 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-      <c r="AD35" s="29"/>
-      <c r="AE35" s="29"/>
-      <c r="AF35" s="30"/>
-      <c r="AG35" s="50"/>
-      <c r="AH35" s="51"/>
-      <c r="AI35" s="51"/>
-      <c r="AJ35" s="51"/>
-      <c r="AK35" s="52"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="51"/>
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="52"/>
+      <c r="AJ35" s="52"/>
+      <c r="AK35" s="53"/>
     </row>
     <row r="36" customFormat="1" ht="75.6" customHeight="1" spans="2:37">
       <c r="B36" s="15" t="s">
@@ -6214,37 +6204,37 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
-      <c r="K36" s="20" t="s">
+      <c r="K36" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="20" t="s">
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="25"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="51"/>
-      <c r="AH36" s="51"/>
-      <c r="AI36" s="51"/>
-      <c r="AJ36" s="51"/>
-      <c r="AK36" s="52"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="52"/>
+      <c r="AH36" s="52"/>
+      <c r="AI36" s="52"/>
+      <c r="AJ36" s="52"/>
+      <c r="AK36" s="53"/>
     </row>
     <row r="37" ht="16.5" spans="2:37">
       <c r="B37" s="17" t="s">
@@ -6258,37 +6248,37 @@
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
-      <c r="K37" s="22" t="s">
+      <c r="K37" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="22" t="s">
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="23"/>
-      <c r="AA37" s="23"/>
-      <c r="AB37" s="23"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="34"/>
-      <c r="AF37" s="34"/>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="34"/>
-      <c r="AI37" s="34"/>
-      <c r="AJ37" s="34"/>
-      <c r="AK37" s="53"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="35"/>
+      <c r="AF37" s="35"/>
+      <c r="AG37" s="35"/>
+      <c r="AH37" s="35"/>
+      <c r="AI37" s="35"/>
+      <c r="AJ37" s="35"/>
+      <c r="AK37" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -6454,4 +6444,36 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/finished/焦化/CK67-粗苯蒸馏（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-粗苯蒸馏（日）报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="5.粗苯蒸馏（日）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t xml:space="preserve"> 粗 苯 蒸 馏 操 作 记 录</t>
   </si>
@@ -30,6 +30,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年</t>
@@ -39,7 +40,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -48,6 +49,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>　</t>
@@ -57,7 +59,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -66,6 +68,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月　</t>
@@ -75,7 +78,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">     </t>
     </r>
@@ -84,6 +87,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -98,6 +102,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -107,7 +112,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
@@ -116,6 +121,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -206,6 +212,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回流量m</t>
@@ -215,6 +222,7 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -223,6 +231,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/H</t>
@@ -407,7 +416,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -416,6 +425,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>夜班记事：</t>
@@ -424,7 +434,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -434,7 +444,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -442,6 +452,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -451,6 +462,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -459,7 +471,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -469,7 +481,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -477,6 +489,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -486,6 +499,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -494,7 +508,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -504,7 +518,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -513,6 +527,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交班：</t>
@@ -521,7 +536,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -530,6 +545,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接班：</t>
@@ -539,15 +555,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-  </numFmts>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,29 +568,33 @@
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -589,6 +602,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -596,400 +610,94 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="38">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1364,278 +1072,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1647,68 +1095,98 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1719,26 +1197,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1758,62 +1221,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1824,7 +1255,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1838,7 +1269,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -2030,7 +1461,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Line 2"/>
         <xdr:cNvSpPr>
@@ -2076,7 +1507,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Line 3"/>
         <xdr:cNvSpPr>
@@ -2122,7 +1553,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Line 5"/>
         <xdr:cNvSpPr>
@@ -2168,7 +1599,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Line 6"/>
         <xdr:cNvSpPr>
@@ -2456,350 +1887,350 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AK37"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="12" max="13" width="8.625"/>
     <col min="33" max="33" width="8.625"/>
     <col min="34" max="34" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="22.5" spans="2:33">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:37" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
     </row>
-    <row r="2" customFormat="1" ht="16.5" spans="2:33">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+    <row r="2" spans="2:37" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="19">
-        <f>_metadata!B1</f>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="58">
+        <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5" t="s">
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="3"/>
     </row>
-    <row r="3" customFormat="1" ht="14.1" customHeight="1" spans="2:37">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="36" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="38"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="44"/>
     </row>
-    <row r="4" customFormat="1" spans="2:37">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+    <row r="4" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B4" s="38"/>
+      <c r="C4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9" t="s">
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9" t="s">
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="10" t="s">
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AB4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AC4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AD4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AE4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="41"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="46"/>
     </row>
-    <row r="5" customFormat="1" spans="2:37">
-      <c r="B5" s="8"/>
-      <c r="C5" s="10" t="s">
+    <row r="5" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B5" s="38"/>
+      <c r="C5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="U5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="25" t="s">
+      <c r="X5" s="22"/>
+      <c r="Y5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="10" t="s">
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AF5" s="29" t="s">
+      <c r="AF5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="46"/>
     </row>
-    <row r="6" customFormat="1" ht="22.5" spans="2:37">
-      <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+    <row r="6" spans="2:37" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="38"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="25" t="s">
+      <c r="K6" s="39"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="X6" s="25" t="s">
+      <c r="X6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" s="25" t="s">
+      <c r="Y6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Z6" s="25" t="s">
+      <c r="Z6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="42" t="s">
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="44" t="s">
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="12" t="s">
         <v>45</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AK6" s="45" t="s">
+      <c r="AK6" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="24" customHeight="1" spans="2:37">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2892,14 +2323,14 @@
       <c r="AF7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG7" s="46"/>
+      <c r="AG7" s="14"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
-      <c r="AK7" s="45"/>
+      <c r="AK7" s="13"/>
     </row>
-    <row r="8" customFormat="1" spans="2:37">
-      <c r="B8" s="13">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B8" s="7">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="str">
@@ -3022,7 +2453,7 @@
         <f>IF(_cuben_day_hour!AD2="","",_cuben_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG8" s="39" t="s">
+      <c r="AG8" s="41" t="s">
         <v>79</v>
       </c>
       <c r="AH8" s="1" t="s">
@@ -3030,11 +2461,11 @@
       </c>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
-      <c r="AK8" s="45"/>
+      <c r="AK8" s="13"/>
     </row>
-    <row r="9" customFormat="1" spans="2:37">
-      <c r="B9" s="13">
-        <v>0.0416666666666667</v>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B9" s="7">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>IF(_cuben_day_hour!A3="","",_cuben_day_hour!A3)</f>
@@ -3156,17 +2587,17 @@
         <f>IF(_cuben_day_hour!AD3="","",_cuben_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="47" t="s">
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="15" t="s">
         <v>81</v>
       </c>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
-      <c r="AK9" s="45"/>
+      <c r="AK9" s="13"/>
     </row>
-    <row r="10" customFormat="1" spans="2:37">
-      <c r="B10" s="13">
-        <v>0.0833333333333333</v>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B10" s="7">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>IF(_cuben_day_hour!A4="","",_cuben_day_hour!A4)</f>
@@ -3288,16 +2719,16 @@
         <f>IF(_cuben_day_hour!AD4="","",_cuben_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="47" t="s">
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="15" t="s">
         <v>82</v>
       </c>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="45"/>
+      <c r="AK10" s="13"/>
     </row>
-    <row r="11" customFormat="1" spans="2:37">
-      <c r="B11" s="13">
+    <row r="11" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B11" s="7">
         <v>0.125</v>
       </c>
       <c r="C11" s="1" t="str">
@@ -3420,17 +2851,17 @@
         <f>IF(_cuben_day_hour!AD5="","",_cuben_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="47" t="s">
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="15" t="s">
         <v>83</v>
       </c>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
-      <c r="AK11" s="45"/>
+      <c r="AK11" s="13"/>
     </row>
-    <row r="12" customFormat="1" spans="2:37">
-      <c r="B12" s="13">
-        <v>0.166666666666667</v>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B12" s="7">
+        <v>0.16666666666666699</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>IF(_cuben_day_hour!A6="","",_cuben_day_hour!A6)</f>
@@ -3552,17 +2983,17 @@
         <f>IF(_cuben_day_hour!AD6="","",_cuben_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="47" t="s">
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="15" t="s">
         <v>84</v>
       </c>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
-      <c r="AK12" s="45"/>
+      <c r="AK12" s="13"/>
     </row>
-    <row r="13" customFormat="1" spans="2:37">
-      <c r="B13" s="13">
-        <v>0.208333333333333</v>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B13" s="7">
+        <v>0.20833333333333301</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>IF(_cuben_day_hour!A7="","",_cuben_day_hour!A7)</f>
@@ -3684,16 +3115,16 @@
         <f>IF(_cuben_day_hour!AD7="","",_cuben_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="47" t="s">
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="15" t="s">
         <v>85</v>
       </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
-      <c r="AK13" s="45"/>
+      <c r="AK13" s="13"/>
     </row>
-    <row r="14" customFormat="1" spans="2:37">
-      <c r="B14" s="13">
+    <row r="14" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B14" s="7">
         <v>0.25</v>
       </c>
       <c r="C14" s="1" t="str">
@@ -3816,15 +3247,15 @@
         <f>IF(_cuben_day_hour!AD8="","",_cuben_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="49"/>
-      <c r="AK14" s="50"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="49"/>
     </row>
-    <row r="15" customFormat="1" spans="2:37">
-      <c r="B15" s="13">
-        <v>0.291666666666667</v>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B15" s="7">
+        <v>0.29166666666666702</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>IF(_cuben_day_hour!A9="","",_cuben_day_hour!A9)</f>
@@ -3946,15 +3377,15 @@
         <f>IF(_cuben_day_hour!AD9="","",_cuben_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="52"/>
-      <c r="AI15" s="52"/>
-      <c r="AJ15" s="52"/>
-      <c r="AK15" s="53"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="52"/>
     </row>
-    <row r="16" customFormat="1" spans="2:37">
-      <c r="B16" s="13">
-        <v>0.333333333333333</v>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B16" s="7">
+        <v>0.33333333333333298</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>IF(_cuben_day_hour!A10="","",_cuben_day_hour!A10)</f>
@@ -4076,14 +3507,14 @@
         <f>IF(_cuben_day_hour!AD10="","",_cuben_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="52"/>
-      <c r="AI16" s="52"/>
-      <c r="AJ16" s="52"/>
-      <c r="AK16" s="53"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="52"/>
     </row>
-    <row r="17" customFormat="1" spans="2:37">
-      <c r="B17" s="13">
+    <row r="17" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B17" s="7">
         <v>0.375</v>
       </c>
       <c r="C17" s="1" t="str">
@@ -4206,15 +3637,15 @@
         <f>IF(_cuben_day_hour!AD11="","",_cuben_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG17" s="51"/>
-      <c r="AH17" s="52"/>
-      <c r="AI17" s="52"/>
-      <c r="AJ17" s="52"/>
-      <c r="AK17" s="53"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="52"/>
     </row>
-    <row r="18" customFormat="1" spans="2:37">
-      <c r="B18" s="13">
-        <v>0.416666666666666</v>
+    <row r="18" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B18" s="7">
+        <v>0.41666666666666602</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>IF(_cuben_day_hour!A12="","",_cuben_day_hour!A12)</f>
@@ -4336,15 +3767,15 @@
         <f>IF(_cuben_day_hour!AD12="","",_cuben_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="52"/>
-      <c r="AI18" s="52"/>
-      <c r="AJ18" s="52"/>
-      <c r="AK18" s="53"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="52"/>
     </row>
-    <row r="19" customFormat="1" spans="2:37">
-      <c r="B19" s="13">
-        <v>0.458333333333333</v>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B19" s="7">
+        <v>0.45833333333333298</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>IF(_cuben_day_hour!A13="","",_cuben_day_hour!A13)</f>
@@ -4466,14 +3897,14 @@
         <f>IF(_cuben_day_hour!AD13="","",_cuben_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="52"/>
-      <c r="AI19" s="52"/>
-      <c r="AJ19" s="52"/>
-      <c r="AK19" s="53"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="51"/>
+      <c r="AJ19" s="51"/>
+      <c r="AK19" s="52"/>
     </row>
-    <row r="20" customFormat="1" spans="2:37">
-      <c r="B20" s="13">
+    <row r="20" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B20" s="7">
         <v>0.5</v>
       </c>
       <c r="C20" s="1" t="str">
@@ -4596,15 +4027,15 @@
         <f>IF(_cuben_day_hour!AD14="","",_cuben_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG20" s="51"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="52"/>
-      <c r="AJ20" s="52"/>
-      <c r="AK20" s="53"/>
+      <c r="AG20" s="50"/>
+      <c r="AH20" s="51"/>
+      <c r="AI20" s="51"/>
+      <c r="AJ20" s="51"/>
+      <c r="AK20" s="52"/>
     </row>
-    <row r="21" customFormat="1" spans="2:37">
-      <c r="B21" s="13">
-        <v>0.541666666666666</v>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B21" s="7">
+        <v>0.54166666666666596</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>IF(_cuben_day_hour!A15="","",_cuben_day_hour!A15)</f>
@@ -4726,15 +4157,15 @@
         <f>IF(_cuben_day_hour!AD15="","",_cuben_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG21" s="51"/>
-      <c r="AH21" s="52"/>
-      <c r="AI21" s="52"/>
-      <c r="AJ21" s="52"/>
-      <c r="AK21" s="53"/>
+      <c r="AG21" s="50"/>
+      <c r="AH21" s="51"/>
+      <c r="AI21" s="51"/>
+      <c r="AJ21" s="51"/>
+      <c r="AK21" s="52"/>
     </row>
-    <row r="22" customFormat="1" spans="2:37">
-      <c r="B22" s="13">
-        <v>0.583333333333333</v>
+    <row r="22" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B22" s="7">
+        <v>0.58333333333333304</v>
       </c>
       <c r="C22" s="1" t="str">
         <f>IF(_cuben_day_hour!A16="","",_cuben_day_hour!A16)</f>
@@ -4856,14 +4287,14 @@
         <f>IF(_cuben_day_hour!AD16="","",_cuben_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="52"/>
-      <c r="AI22" s="52"/>
-      <c r="AJ22" s="52"/>
-      <c r="AK22" s="53"/>
+      <c r="AG22" s="50"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="52"/>
     </row>
-    <row r="23" customFormat="1" spans="2:37">
-      <c r="B23" s="13">
+    <row r="23" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B23" s="7">
         <v>0.625</v>
       </c>
       <c r="C23" s="1" t="str">
@@ -4986,15 +4417,15 @@
         <f>IF(_cuben_day_hour!AD17="","",_cuben_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG23" s="51"/>
-      <c r="AH23" s="52"/>
-      <c r="AI23" s="52"/>
-      <c r="AJ23" s="52"/>
-      <c r="AK23" s="53"/>
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="52"/>
     </row>
-    <row r="24" customFormat="1" spans="2:37">
-      <c r="B24" s="13">
-        <v>0.666666666666667</v>
+    <row r="24" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B24" s="7">
+        <v>0.66666666666666696</v>
       </c>
       <c r="C24" s="1" t="str">
         <f>IF(_cuben_day_hour!A18="","",_cuben_day_hour!A18)</f>
@@ -5116,15 +4547,15 @@
         <f>IF(_cuben_day_hour!AD18="","",_cuben_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG24" s="51"/>
-      <c r="AH24" s="52"/>
-      <c r="AI24" s="52"/>
-      <c r="AJ24" s="52"/>
-      <c r="AK24" s="53"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="51"/>
+      <c r="AI24" s="51"/>
+      <c r="AJ24" s="51"/>
+      <c r="AK24" s="52"/>
     </row>
-    <row r="25" customFormat="1" spans="2:37">
-      <c r="B25" s="13">
-        <v>0.708333333333333</v>
+    <row r="25" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B25" s="7">
+        <v>0.70833333333333304</v>
       </c>
       <c r="C25" s="1" t="str">
         <f>IF(_cuben_day_hour!A19="","",_cuben_day_hour!A19)</f>
@@ -5246,14 +4677,14 @@
         <f>IF(_cuben_day_hour!AD19="","",_cuben_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="52"/>
-      <c r="AJ25" s="52"/>
-      <c r="AK25" s="53"/>
+      <c r="AG25" s="50"/>
+      <c r="AH25" s="51"/>
+      <c r="AI25" s="51"/>
+      <c r="AJ25" s="51"/>
+      <c r="AK25" s="52"/>
     </row>
-    <row r="26" customFormat="1" spans="2:37">
-      <c r="B26" s="13">
+    <row r="26" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B26" s="7">
         <v>0.75</v>
       </c>
       <c r="C26" s="1" t="str">
@@ -5376,15 +4807,15 @@
         <f>IF(_cuben_day_hour!AD20="","",_cuben_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="52"/>
-      <c r="AJ26" s="52"/>
-      <c r="AK26" s="53"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="52"/>
     </row>
-    <row r="27" customFormat="1" spans="2:37">
-      <c r="B27" s="13">
-        <v>0.791666666666667</v>
+    <row r="27" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B27" s="7">
+        <v>0.79166666666666696</v>
       </c>
       <c r="C27" s="1" t="str">
         <f>IF(_cuben_day_hour!A21="","",_cuben_day_hour!A21)</f>
@@ -5506,15 +4937,15 @@
         <f>IF(_cuben_day_hour!AD21="","",_cuben_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG27" s="51"/>
-      <c r="AH27" s="52"/>
-      <c r="AI27" s="52"/>
-      <c r="AJ27" s="52"/>
-      <c r="AK27" s="53"/>
+      <c r="AG27" s="50"/>
+      <c r="AH27" s="51"/>
+      <c r="AI27" s="51"/>
+      <c r="AJ27" s="51"/>
+      <c r="AK27" s="52"/>
     </row>
-    <row r="28" customFormat="1" spans="2:37">
-      <c r="B28" s="13">
-        <v>0.833333333333333</v>
+    <row r="28" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B28" s="7">
+        <v>0.83333333333333304</v>
       </c>
       <c r="C28" s="1" t="str">
         <f>IF(_cuben_day_hour!A22="","",_cuben_day_hour!A22)</f>
@@ -5636,14 +5067,14 @@
         <f>IF(_cuben_day_hour!AD22="","",_cuben_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="52"/>
-      <c r="AI28" s="52"/>
-      <c r="AJ28" s="52"/>
-      <c r="AK28" s="53"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="52"/>
     </row>
-    <row r="29" customFormat="1" spans="2:37">
-      <c r="B29" s="13">
+    <row r="29" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B29" s="7">
         <v>0.875</v>
       </c>
       <c r="C29" s="1" t="str">
@@ -5766,15 +5197,15 @@
         <f>IF(_cuben_day_hour!AD23="","",_cuben_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="52"/>
-      <c r="AI29" s="52"/>
-      <c r="AJ29" s="52"/>
-      <c r="AK29" s="53"/>
+      <c r="AG29" s="50"/>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="51"/>
+      <c r="AK29" s="52"/>
     </row>
-    <row r="30" customFormat="1" spans="2:37">
-      <c r="B30" s="13">
-        <v>0.916666666666667</v>
+    <row r="30" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B30" s="7">
+        <v>0.91666666666666696</v>
       </c>
       <c r="C30" s="1" t="str">
         <f>IF(_cuben_day_hour!A24="","",_cuben_day_hour!A24)</f>
@@ -5896,15 +5327,15 @@
         <f>IF(_cuben_day_hour!AD24="","",_cuben_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG30" s="51"/>
-      <c r="AH30" s="52"/>
-      <c r="AI30" s="52"/>
-      <c r="AJ30" s="52"/>
-      <c r="AK30" s="53"/>
+      <c r="AG30" s="50"/>
+      <c r="AH30" s="51"/>
+      <c r="AI30" s="51"/>
+      <c r="AJ30" s="51"/>
+      <c r="AK30" s="52"/>
     </row>
-    <row r="31" customFormat="1" spans="2:37">
-      <c r="B31" s="13">
-        <v>0.958333333333333</v>
+    <row r="31" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B31" s="7">
+        <v>0.95833333333333304</v>
       </c>
       <c r="C31" s="1" t="str">
         <f>IF(_cuben_day_hour!A25="","",_cuben_day_hour!A25)</f>
@@ -6026,14 +5457,14 @@
         <f>IF(_cuben_day_hour!AD25="","",_cuben_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG31" s="51"/>
-      <c r="AH31" s="52"/>
-      <c r="AI31" s="52"/>
-      <c r="AJ31" s="52"/>
-      <c r="AK31" s="53"/>
+      <c r="AG31" s="50"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="51"/>
+      <c r="AK31" s="52"/>
     </row>
-    <row r="32" customFormat="1" spans="2:37">
-      <c r="B32" s="14" t="s">
+    <row r="32" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B32" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C32" s="1"/>
@@ -6066,14 +5497,14 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="2"/>
-      <c r="AG32" s="51"/>
-      <c r="AH32" s="52"/>
-      <c r="AI32" s="52"/>
-      <c r="AJ32" s="52"/>
-      <c r="AK32" s="53"/>
+      <c r="AG32" s="50"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="51"/>
+      <c r="AJ32" s="51"/>
+      <c r="AK32" s="52"/>
     </row>
-    <row r="33" customFormat="1" spans="2:37">
-      <c r="B33" s="14" t="s">
+    <row r="33" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B33" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="1"/>
@@ -6106,14 +5537,14 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="2"/>
-      <c r="AG33" s="51"/>
-      <c r="AH33" s="52"/>
-      <c r="AI33" s="52"/>
-      <c r="AJ33" s="52"/>
-      <c r="AK33" s="53"/>
+      <c r="AG33" s="50"/>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="51"/>
+      <c r="AJ33" s="51"/>
+      <c r="AK33" s="52"/>
     </row>
-    <row r="34" customFormat="1" spans="2:37">
-      <c r="B34" s="14" t="s">
+    <row r="34" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B34" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C34" s="1"/>
@@ -6146,14 +5577,14 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="51"/>
-      <c r="AH34" s="52"/>
-      <c r="AI34" s="52"/>
-      <c r="AJ34" s="52"/>
-      <c r="AK34" s="53"/>
+      <c r="AG34" s="50"/>
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="52"/>
     </row>
-    <row r="35" customFormat="1" ht="14.25" spans="2:37">
-      <c r="B35" s="14" t="s">
+    <row r="35" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B35" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="1"/>
@@ -6183,132 +5614,125 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="51"/>
-      <c r="AH35" s="52"/>
-      <c r="AI35" s="52"/>
-      <c r="AJ35" s="52"/>
-      <c r="AK35" s="53"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="50"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="51"/>
+      <c r="AK35" s="52"/>
     </row>
-    <row r="36" customFormat="1" ht="75.6" customHeight="1" spans="2:37">
-      <c r="B36" s="15" t="s">
+    <row r="36" spans="2:37" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="21" t="s">
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="21" t="s">
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
-      <c r="AG36" s="52"/>
-      <c r="AH36" s="52"/>
-      <c r="AI36" s="52"/>
-      <c r="AJ36" s="52"/>
-      <c r="AK36" s="53"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="55"/>
+      <c r="AE36" s="56"/>
+      <c r="AF36" s="56"/>
+      <c r="AG36" s="51"/>
+      <c r="AH36" s="51"/>
+      <c r="AI36" s="51"/>
+      <c r="AJ36" s="51"/>
+      <c r="AK36" s="52"/>
     </row>
-    <row r="37" ht="16.5" spans="2:37">
-      <c r="B37" s="17" t="s">
+    <row r="37" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="23" t="s">
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="23" t="s">
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="35"/>
-      <c r="AF37" s="35"/>
-      <c r="AG37" s="35"/>
-      <c r="AH37" s="35"/>
-      <c r="AI37" s="35"/>
-      <c r="AJ37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="57"/>
+      <c r="AE37" s="53"/>
+      <c r="AF37" s="53"/>
+      <c r="AG37" s="53"/>
+      <c r="AH37" s="53"/>
+      <c r="AI37" s="53"/>
+      <c r="AJ37" s="53"/>
       <c r="AK37" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B1:AG1"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="C3:AF3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AG8:AG13"/>
+    <mergeCell ref="AG3:AK5"/>
+    <mergeCell ref="AG14:AK37"/>
+    <mergeCell ref="AD36:AF37"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="B36:J36"/>
     <mergeCell ref="K36:S36"/>
     <mergeCell ref="T36:AC36"/>
     <mergeCell ref="B37:J37"/>
     <mergeCell ref="K37:S37"/>
     <mergeCell ref="T37:AC37"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AG6:AH6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
@@ -6320,35 +5744,41 @@
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="V5:V6"/>
+    <mergeCell ref="C3:AF3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="AA4:AA6"/>
     <mergeCell ref="AB4:AB6"/>
     <mergeCell ref="AC4:AC6"/>
     <mergeCell ref="AD4:AD6"/>
     <mergeCell ref="AE5:AE6"/>
     <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG8:AG13"/>
-    <mergeCell ref="AG3:AK5"/>
-    <mergeCell ref="AG14:AK37"/>
-    <mergeCell ref="AD36:AF37"/>
+    <mergeCell ref="B1:AG1"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -6441,39 +5871,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-粗苯蒸馏（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-粗苯蒸馏（日）报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="5.粗苯蒸馏（日）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t xml:space="preserve"> 粗 苯 蒸 馏 操 作 记 录</t>
   </si>
@@ -30,7 +30,6 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年</t>
@@ -40,7 +39,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -49,7 +48,6 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>　</t>
@@ -59,7 +57,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -68,7 +66,6 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月　</t>
@@ -78,7 +75,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">     </t>
     </r>
@@ -87,7 +84,6 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -102,7 +98,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -112,7 +107,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
@@ -121,7 +116,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -212,7 +206,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回流量m</t>
@@ -222,7 +215,6 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -231,7 +223,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/H</t>
@@ -416,7 +407,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -425,7 +416,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>夜班记事：</t>
@@ -434,7 +424,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -444,7 +434,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -452,7 +442,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -462,7 +451,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -471,7 +459,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -481,7 +469,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -489,7 +477,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -499,7 +486,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -508,7 +494,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -518,7 +504,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -527,7 +513,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交班：</t>
@@ -536,7 +521,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -545,7 +530,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接班：</t>
@@ -555,8 +539,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,33 +558,29 @@
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -602,7 +588,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -610,94 +595,412 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -863,6 +1166,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1072,18 +1384,278 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1095,49 +1667,86 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1145,66 +1754,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1215,36 +1769,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1255,7 +1844,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1269,14 +1858,14 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13681075" y="6102350"/>
+          <a:off x="13681075" y="6140450"/>
           <a:ext cx="4687570" cy="134620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1461,7 +2050,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Line 2"/>
         <xdr:cNvSpPr>
@@ -1470,7 +2059,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="674370"/>
+          <a:off x="6858000" y="712470"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1507,7 +2096,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Line 3"/>
         <xdr:cNvSpPr>
@@ -1516,7 +2105,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="1017270"/>
+          <a:off x="6858000" y="1055370"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1553,7 +2142,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Line 5"/>
         <xdr:cNvSpPr>
@@ -1562,7 +2151,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="674370"/>
+          <a:off x="6858000" y="712470"/>
           <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1599,7 +2188,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Line 6"/>
         <xdr:cNvSpPr>
@@ -1608,7 +2197,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="674370"/>
+          <a:off x="6858000" y="712470"/>
           <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1887,350 +2476,350 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:AK37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="12" max="13" width="8.625"/>
     <col min="33" max="33" width="8.625"/>
     <col min="34" max="34" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B1" s="16" t="s">
+    <row r="1" ht="22.5" spans="2:33">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
     </row>
-    <row r="2" spans="2:37" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
+    <row r="2" ht="19.5" spans="2:33">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="58">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="19">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="3"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
     </row>
-    <row r="3" spans="2:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="37" t="s">
+    <row r="3" ht="14.1" customHeight="1" spans="2:37">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="42" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="44"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="38"/>
     </row>
-    <row r="4" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B4" s="38"/>
-      <c r="C4" s="21" t="s">
+    <row r="4" spans="2:37">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21" t="s">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="22" t="s">
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="22" t="s">
+      <c r="AB4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="22" t="s">
+      <c r="AC4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AD4" s="22" t="s">
+      <c r="AD4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AE4" s="22" t="s">
+      <c r="AE4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="45"/>
-      <c r="AK4" s="46"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="41"/>
     </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B5" s="38"/>
-      <c r="C5" s="22" t="s">
+    <row r="5" spans="2:37">
+      <c r="B5" s="8"/>
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="39" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="R5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="39" t="s">
+      <c r="T5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="22" t="s">
+      <c r="U5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="22" t="s">
+      <c r="V5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="22" t="s">
+      <c r="W5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="24" t="s">
+      <c r="X5" s="10"/>
+      <c r="Y5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="22" t="s">
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AF5" s="23" t="s">
+      <c r="AF5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="46"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="40"/>
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="41"/>
     </row>
-    <row r="6" spans="2:37" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="38"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="4" t="s">
+    <row r="6" ht="22.5" spans="2:37">
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="9" t="s">
+      <c r="K6" s="11"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="Z6" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="25" t="s">
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="12" t="s">
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="44" t="s">
         <v>45</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AK6" s="13" t="s">
+      <c r="AK6" s="45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="6" t="s">
+    <row r="7" ht="24" customHeight="1" spans="2:37">
+      <c r="B7" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2323,14 +2912,14 @@
       <c r="AF7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG7" s="14"/>
+      <c r="AG7" s="46"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
-      <c r="AK7" s="13"/>
+      <c r="AK7" s="45"/>
     </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B8" s="7">
+    <row r="8" spans="2:37">
+      <c r="B8" s="13">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="str">
@@ -2453,7 +3042,7 @@
         <f>IF(_cuben_day_hour!AD2="","",_cuben_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG8" s="41" t="s">
+      <c r="AG8" s="39" t="s">
         <v>79</v>
       </c>
       <c r="AH8" s="1" t="s">
@@ -2461,11 +3050,11 @@
       </c>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
-      <c r="AK8" s="13"/>
+      <c r="AK8" s="45"/>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B9" s="7">
-        <v>4.1666666666666699E-2</v>
+    <row r="9" spans="2:37">
+      <c r="B9" s="13">
+        <v>0.0416666666666667</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>IF(_cuben_day_hour!A3="","",_cuben_day_hour!A3)</f>
@@ -2587,17 +3176,17 @@
         <f>IF(_cuben_day_hour!AD3="","",_cuben_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="15" t="s">
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="47" t="s">
         <v>81</v>
       </c>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
-      <c r="AK9" s="13"/>
+      <c r="AK9" s="45"/>
     </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B10" s="7">
-        <v>8.3333333333333301E-2</v>
+    <row r="10" spans="2:37">
+      <c r="B10" s="13">
+        <v>0.0833333333333333</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>IF(_cuben_day_hour!A4="","",_cuben_day_hour!A4)</f>
@@ -2719,16 +3308,16 @@
         <f>IF(_cuben_day_hour!AD4="","",_cuben_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="15" t="s">
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="47" t="s">
         <v>82</v>
       </c>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="13"/>
+      <c r="AK10" s="45"/>
     </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B11" s="7">
+    <row r="11" spans="2:37">
+      <c r="B11" s="13">
         <v>0.125</v>
       </c>
       <c r="C11" s="1" t="str">
@@ -2851,17 +3440,17 @@
         <f>IF(_cuben_day_hour!AD5="","",_cuben_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="15" t="s">
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="47" t="s">
         <v>83</v>
       </c>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
-      <c r="AK11" s="13"/>
+      <c r="AK11" s="45"/>
     </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B12" s="7">
-        <v>0.16666666666666699</v>
+    <row r="12" spans="2:37">
+      <c r="B12" s="13">
+        <v>0.166666666666667</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>IF(_cuben_day_hour!A6="","",_cuben_day_hour!A6)</f>
@@ -2983,17 +3572,17 @@
         <f>IF(_cuben_day_hour!AD6="","",_cuben_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="15" t="s">
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="47" t="s">
         <v>84</v>
       </c>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
-      <c r="AK12" s="13"/>
+      <c r="AK12" s="45"/>
     </row>
-    <row r="13" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B13" s="7">
-        <v>0.20833333333333301</v>
+    <row r="13" spans="2:37">
+      <c r="B13" s="13">
+        <v>0.208333333333333</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>IF(_cuben_day_hour!A7="","",_cuben_day_hour!A7)</f>
@@ -3115,16 +3704,16 @@
         <f>IF(_cuben_day_hour!AD7="","",_cuben_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="15" t="s">
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="47" t="s">
         <v>85</v>
       </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
-      <c r="AK13" s="13"/>
+      <c r="AK13" s="45"/>
     </row>
-    <row r="14" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B14" s="7">
+    <row r="14" spans="2:37">
+      <c r="B14" s="13">
         <v>0.25</v>
       </c>
       <c r="C14" s="1" t="str">
@@ -3247,15 +3836,15 @@
         <f>IF(_cuben_day_hour!AD8="","",_cuben_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="49"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="50"/>
     </row>
-    <row r="15" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B15" s="7">
-        <v>0.29166666666666702</v>
+    <row r="15" spans="2:37">
+      <c r="B15" s="13">
+        <v>0.291666666666667</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>IF(_cuben_day_hour!A9="","",_cuben_day_hour!A9)</f>
@@ -3377,15 +3966,15 @@
         <f>IF(_cuben_day_hour!AD9="","",_cuben_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="52"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="52"/>
+      <c r="AJ15" s="52"/>
+      <c r="AK15" s="53"/>
     </row>
-    <row r="16" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B16" s="7">
-        <v>0.33333333333333298</v>
+    <row r="16" spans="2:37">
+      <c r="B16" s="13">
+        <v>0.333333333333333</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>IF(_cuben_day_hour!A10="","",_cuben_day_hour!A10)</f>
@@ -3507,14 +4096,14 @@
         <f>IF(_cuben_day_hour!AD10="","",_cuben_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="52"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="53"/>
     </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B17" s="7">
+    <row r="17" spans="2:37">
+      <c r="B17" s="13">
         <v>0.375</v>
       </c>
       <c r="C17" s="1" t="str">
@@ -3637,15 +4226,15 @@
         <f>IF(_cuben_day_hour!AD11="","",_cuben_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
-      <c r="AK17" s="52"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
+      <c r="AJ17" s="52"/>
+      <c r="AK17" s="53"/>
     </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B18" s="7">
-        <v>0.41666666666666602</v>
+    <row r="18" spans="2:37">
+      <c r="B18" s="13">
+        <v>0.416666666666666</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>IF(_cuben_day_hour!A12="","",_cuben_day_hour!A12)</f>
@@ -3767,15 +4356,15 @@
         <f>IF(_cuben_day_hour!AD12="","",_cuben_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
-      <c r="AK18" s="52"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="52"/>
+      <c r="AJ18" s="52"/>
+      <c r="AK18" s="53"/>
     </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B19" s="7">
-        <v>0.45833333333333298</v>
+    <row r="19" spans="2:37">
+      <c r="B19" s="13">
+        <v>0.458333333333333</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>IF(_cuben_day_hour!A13="","",_cuben_day_hour!A13)</f>
@@ -3897,14 +4486,14 @@
         <f>IF(_cuben_day_hour!AD13="","",_cuben_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG19" s="50"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
-      <c r="AK19" s="52"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
+      <c r="AJ19" s="52"/>
+      <c r="AK19" s="53"/>
     </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B20" s="7">
+    <row r="20" spans="2:37">
+      <c r="B20" s="13">
         <v>0.5</v>
       </c>
       <c r="C20" s="1" t="str">
@@ -4027,15 +4616,15 @@
         <f>IF(_cuben_day_hour!AD14="","",_cuben_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG20" s="50"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="51"/>
-      <c r="AK20" s="52"/>
+      <c r="AG20" s="51"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
+      <c r="AJ20" s="52"/>
+      <c r="AK20" s="53"/>
     </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B21" s="7">
-        <v>0.54166666666666596</v>
+    <row r="21" spans="2:37">
+      <c r="B21" s="13">
+        <v>0.541666666666666</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>IF(_cuben_day_hour!A15="","",_cuben_day_hour!A15)</f>
@@ -4157,15 +4746,15 @@
         <f>IF(_cuben_day_hour!AD15="","",_cuben_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG21" s="50"/>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="51"/>
-      <c r="AK21" s="52"/>
+      <c r="AG21" s="51"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="53"/>
     </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B22" s="7">
-        <v>0.58333333333333304</v>
+    <row r="22" spans="2:37">
+      <c r="B22" s="13">
+        <v>0.583333333333333</v>
       </c>
       <c r="C22" s="1" t="str">
         <f>IF(_cuben_day_hour!A16="","",_cuben_day_hour!A16)</f>
@@ -4287,14 +4876,14 @@
         <f>IF(_cuben_day_hour!AD16="","",_cuben_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG22" s="50"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="52"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="52"/>
+      <c r="AI22" s="52"/>
+      <c r="AJ22" s="52"/>
+      <c r="AK22" s="53"/>
     </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B23" s="7">
+    <row r="23" spans="2:37">
+      <c r="B23" s="13">
         <v>0.625</v>
       </c>
       <c r="C23" s="1" t="str">
@@ -4417,15 +5006,15 @@
         <f>IF(_cuben_day_hour!AD17="","",_cuben_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG23" s="50"/>
-      <c r="AH23" s="51"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="51"/>
-      <c r="AK23" s="52"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="52"/>
+      <c r="AI23" s="52"/>
+      <c r="AJ23" s="52"/>
+      <c r="AK23" s="53"/>
     </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B24" s="7">
-        <v>0.66666666666666696</v>
+    <row r="24" spans="2:37">
+      <c r="B24" s="13">
+        <v>0.666666666666667</v>
       </c>
       <c r="C24" s="1" t="str">
         <f>IF(_cuben_day_hour!A18="","",_cuben_day_hour!A18)</f>
@@ -4547,15 +5136,15 @@
         <f>IF(_cuben_day_hour!AD18="","",_cuben_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG24" s="50"/>
-      <c r="AH24" s="51"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="51"/>
-      <c r="AK24" s="52"/>
+      <c r="AG24" s="51"/>
+      <c r="AH24" s="52"/>
+      <c r="AI24" s="52"/>
+      <c r="AJ24" s="52"/>
+      <c r="AK24" s="53"/>
     </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B25" s="7">
-        <v>0.70833333333333304</v>
+    <row r="25" spans="2:37">
+      <c r="B25" s="13">
+        <v>0.708333333333333</v>
       </c>
       <c r="C25" s="1" t="str">
         <f>IF(_cuben_day_hour!A19="","",_cuben_day_hour!A19)</f>
@@ -4677,14 +5266,14 @@
         <f>IF(_cuben_day_hour!AD19="","",_cuben_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG25" s="50"/>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="52"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="52"/>
+      <c r="AK25" s="53"/>
     </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B26" s="7">
+    <row r="26" spans="2:37">
+      <c r="B26" s="13">
         <v>0.75</v>
       </c>
       <c r="C26" s="1" t="str">
@@ -4807,15 +5396,15 @@
         <f>IF(_cuben_day_hour!AD20="","",_cuben_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="52"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="53"/>
     </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B27" s="7">
-        <v>0.79166666666666696</v>
+    <row r="27" spans="2:37">
+      <c r="B27" s="13">
+        <v>0.791666666666667</v>
       </c>
       <c r="C27" s="1" t="str">
         <f>IF(_cuben_day_hour!A21="","",_cuben_day_hour!A21)</f>
@@ -4937,15 +5526,15 @@
         <f>IF(_cuben_day_hour!AD21="","",_cuben_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG27" s="50"/>
-      <c r="AH27" s="51"/>
-      <c r="AI27" s="51"/>
-      <c r="AJ27" s="51"/>
-      <c r="AK27" s="52"/>
+      <c r="AG27" s="51"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="53"/>
     </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B28" s="7">
-        <v>0.83333333333333304</v>
+    <row r="28" spans="2:37">
+      <c r="B28" s="13">
+        <v>0.833333333333333</v>
       </c>
       <c r="C28" s="1" t="str">
         <f>IF(_cuben_day_hour!A22="","",_cuben_day_hour!A22)</f>
@@ -5067,14 +5656,14 @@
         <f>IF(_cuben_day_hour!AD22="","",_cuben_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="52"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="53"/>
     </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B29" s="7">
+    <row r="29" spans="2:37">
+      <c r="B29" s="13">
         <v>0.875</v>
       </c>
       <c r="C29" s="1" t="str">
@@ -5197,15 +5786,15 @@
         <f>IF(_cuben_day_hour!AD23="","",_cuben_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG29" s="50"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="51"/>
-      <c r="AK29" s="52"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="53"/>
     </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B30" s="7">
-        <v>0.91666666666666696</v>
+    <row r="30" spans="2:37">
+      <c r="B30" s="13">
+        <v>0.916666666666667</v>
       </c>
       <c r="C30" s="1" t="str">
         <f>IF(_cuben_day_hour!A24="","",_cuben_day_hour!A24)</f>
@@ -5327,15 +5916,15 @@
         <f>IF(_cuben_day_hour!AD24="","",_cuben_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG30" s="50"/>
-      <c r="AH30" s="51"/>
-      <c r="AI30" s="51"/>
-      <c r="AJ30" s="51"/>
-      <c r="AK30" s="52"/>
+      <c r="AG30" s="51"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="53"/>
     </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B31" s="7">
-        <v>0.95833333333333304</v>
+    <row r="31" spans="2:37">
+      <c r="B31" s="13">
+        <v>0.958333333333333</v>
       </c>
       <c r="C31" s="1" t="str">
         <f>IF(_cuben_day_hour!A25="","",_cuben_day_hour!A25)</f>
@@ -5457,14 +6046,14 @@
         <f>IF(_cuben_day_hour!AD25="","",_cuben_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG31" s="50"/>
-      <c r="AH31" s="51"/>
-      <c r="AI31" s="51"/>
-      <c r="AJ31" s="51"/>
-      <c r="AK31" s="52"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="53"/>
     </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B32" s="8" t="s">
+    <row r="32" spans="2:37">
+      <c r="B32" s="14" t="s">
         <v>86</v>
       </c>
       <c r="C32" s="1"/>
@@ -5497,14 +6086,14 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="2"/>
-      <c r="AG32" s="50"/>
-      <c r="AH32" s="51"/>
-      <c r="AI32" s="51"/>
-      <c r="AJ32" s="51"/>
-      <c r="AK32" s="52"/>
+      <c r="AG32" s="51"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="53"/>
     </row>
-    <row r="33" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B33" s="8" t="s">
+    <row r="33" spans="2:37">
+      <c r="B33" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="1"/>
@@ -5537,14 +6126,14 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="2"/>
-      <c r="AG33" s="50"/>
-      <c r="AH33" s="51"/>
-      <c r="AI33" s="51"/>
-      <c r="AJ33" s="51"/>
-      <c r="AK33" s="52"/>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="53"/>
     </row>
-    <row r="34" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B34" s="8" t="s">
+    <row r="34" spans="2:37">
+      <c r="B34" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C34" s="1"/>
@@ -5577,14 +6166,14 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="50"/>
-      <c r="AH34" s="51"/>
-      <c r="AI34" s="51"/>
-      <c r="AJ34" s="51"/>
-      <c r="AK34" s="52"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="52"/>
+      <c r="AI34" s="52"/>
+      <c r="AJ34" s="52"/>
+      <c r="AK34" s="53"/>
     </row>
-    <row r="35" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B35" s="8" t="s">
+    <row r="35" ht="14.25" spans="2:37">
+      <c r="B35" s="14" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="1"/>
@@ -5614,125 +6203,133 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="11"/>
-      <c r="AG35" s="50"/>
-      <c r="AH35" s="51"/>
-      <c r="AI35" s="51"/>
-      <c r="AJ35" s="51"/>
-      <c r="AK35" s="52"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="51"/>
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="52"/>
+      <c r="AJ35" s="52"/>
+      <c r="AK35" s="53"/>
     </row>
-    <row r="36" spans="2:37" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="27" t="s">
+    <row r="36" ht="75.6" customHeight="1" spans="2:37">
+      <c r="B36" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="29" t="s">
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="29" t="s">
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="55"/>
-      <c r="AE36" s="56"/>
-      <c r="AF36" s="56"/>
-      <c r="AG36" s="51"/>
-      <c r="AH36" s="51"/>
-      <c r="AI36" s="51"/>
-      <c r="AJ36" s="51"/>
-      <c r="AK36" s="52"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="52"/>
+      <c r="AH36" s="52"/>
+      <c r="AI36" s="52"/>
+      <c r="AJ36" s="52"/>
+      <c r="AK36" s="53"/>
     </row>
-    <row r="37" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="32" t="s">
+    <row r="37" ht="16.5" spans="2:37">
+      <c r="B37" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="34" t="s">
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="34" t="s">
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="36"/>
-      <c r="AD37" s="57"/>
-      <c r="AE37" s="53"/>
-      <c r="AF37" s="53"/>
-      <c r="AG37" s="53"/>
-      <c r="AH37" s="53"/>
-      <c r="AI37" s="53"/>
-      <c r="AJ37" s="53"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="35"/>
+      <c r="AF37" s="35"/>
+      <c r="AG37" s="35"/>
+      <c r="AH37" s="35"/>
+      <c r="AI37" s="35"/>
+      <c r="AJ37" s="35"/>
       <c r="AK37" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="AG8:AG13"/>
-    <mergeCell ref="AG3:AK5"/>
-    <mergeCell ref="AG14:AK37"/>
-    <mergeCell ref="AD36:AF37"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="K5:K6"/>
+  <mergeCells count="49">
+    <mergeCell ref="B1:AG1"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="C3:AF3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AG6:AH6"/>
     <mergeCell ref="B36:J36"/>
     <mergeCell ref="K36:S36"/>
     <mergeCell ref="T36:AC36"/>
     <mergeCell ref="B37:J37"/>
     <mergeCell ref="K37:S37"/>
     <mergeCell ref="T37:AC37"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
@@ -5744,41 +6341,35 @@
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="V5:V6"/>
-    <mergeCell ref="C3:AF3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="AA4:AA6"/>
     <mergeCell ref="AB4:AB6"/>
     <mergeCell ref="AC4:AC6"/>
     <mergeCell ref="AD4:AD6"/>
     <mergeCell ref="AE5:AE6"/>
     <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="B1:AG1"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG8:AG13"/>
+    <mergeCell ref="AG3:AK5"/>
+    <mergeCell ref="AG14:AK37"/>
+    <mergeCell ref="AD36:AF37"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -5871,35 +6462,39 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-粗苯蒸馏（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-粗苯蒸馏（日）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="5.粗苯蒸馏（日）" sheetId="1" r:id="rId1"/>
@@ -541,12 +541,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,11 +598,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -621,6 +616,62 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -637,31 +688,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,15 +713,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,13 +738,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,35 +752,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,21 +760,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,13 +775,6 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -815,7 +803,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,7 +863,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,13 +881,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,13 +899,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,109 +917,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,12 +941,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1166,15 +1154,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1381,6 +1360,15 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1400,11 +1388,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1420,17 +1429,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1453,30 +1456,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1488,10 +1467,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1500,136 +1479,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1683,82 +1662,85 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1769,16 +1751,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1865,7 +1844,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13681075" y="6140450"/>
+          <a:off x="13681075" y="6102350"/>
           <a:ext cx="4687570" cy="134620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2059,7 +2038,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="712470"/>
+          <a:off x="6858000" y="674370"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2105,7 +2084,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="1055370"/>
+          <a:off x="6858000" y="1017270"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2151,7 +2130,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="712470"/>
+          <a:off x="6858000" y="674370"/>
           <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2197,7 +2176,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="712470"/>
+          <a:off x="6858000" y="674370"/>
           <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2484,7 +2463,7 @@
   <sheetPr/>
   <dimension ref="B1:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:S2"/>
     </sheetView>
   </sheetViews>
@@ -2495,7 +2474,7 @@
     <col min="34" max="34" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="2:33">
+    <row r="1" customFormat="1" ht="22.5" spans="2:33">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2531,7 +2510,7 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
     </row>
-    <row r="2" ht="19.5" spans="2:33">
+    <row r="2" customFormat="1" ht="16.5" spans="2:33">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
@@ -2549,9 +2528,9 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="19">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="O2" s="19" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
@@ -2574,7 +2553,7 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
     </row>
-    <row r="3" ht="14.1" customHeight="1" spans="2:37">
+    <row r="3" customFormat="1" ht="14.1" customHeight="1" spans="2:37">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -2618,7 +2597,7 @@
       <c r="AJ3" s="37"/>
       <c r="AK3" s="38"/>
     </row>
-    <row r="4" spans="2:37">
+    <row r="4" customFormat="1" spans="2:37">
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -2674,7 +2653,7 @@
       <c r="AJ4" s="40"/>
       <c r="AK4" s="41"/>
     </row>
-    <row r="5" spans="2:37">
+    <row r="5" customFormat="1" spans="2:37">
       <c r="B5" s="8"/>
       <c r="C5" s="10" t="s">
         <v>16</v>
@@ -2754,7 +2733,7 @@
       <c r="AJ5" s="40"/>
       <c r="AK5" s="41"/>
     </row>
-    <row r="6" ht="22.5" spans="2:37">
+    <row r="6" customFormat="1" ht="22.5" spans="2:37">
       <c r="B6" s="8"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -2818,7 +2797,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" ht="24" customHeight="1" spans="2:37">
+    <row r="7" customFormat="1" ht="24" customHeight="1" spans="2:37">
       <c r="B7" s="12" t="s">
         <v>48</v>
       </c>
@@ -2918,7 +2897,7 @@
       <c r="AJ7" s="1"/>
       <c r="AK7" s="45"/>
     </row>
-    <row r="8" spans="2:37">
+    <row r="8" customFormat="1" spans="2:37">
       <c r="B8" s="13">
         <v>0</v>
       </c>
@@ -3048,11 +3027,20 @@
       <c r="AH8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="45"/>
+      <c r="AI8" s="1" t="str">
+        <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
+        <v/>
+      </c>
+      <c r="AJ8" s="1" t="str">
+        <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
+        <v/>
+      </c>
+      <c r="AK8" s="1" t="str">
+        <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="9" spans="2:37">
+    <row r="9" customFormat="1" spans="2:37">
       <c r="B9" s="13">
         <v>0.0416666666666667</v>
       </c>
@@ -3180,11 +3168,20 @@
       <c r="AH9" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="45"/>
+      <c r="AI9" s="1" t="str">
+        <f>IF(_analysis_day_shift!B2="","",_analysis_day_shift!B2)</f>
+        <v/>
+      </c>
+      <c r="AJ9" s="1" t="str">
+        <f>IF(_analysis_day_shift!B3="","",_analysis_day_shift!B3)</f>
+        <v/>
+      </c>
+      <c r="AK9" s="1" t="str">
+        <f>IF(_analysis_day_shift!B4="","",_analysis_day_shift!B4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="10" spans="2:37">
+    <row r="10" customFormat="1" spans="2:37">
       <c r="B10" s="13">
         <v>0.0833333333333333</v>
       </c>
@@ -3312,11 +3309,20 @@
       <c r="AH10" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="45"/>
+      <c r="AI10" s="1" t="str">
+        <f>IF(_analysis_day_shift!C2="","",_analysis_day_shift!C2)</f>
+        <v/>
+      </c>
+      <c r="AJ10" s="1" t="str">
+        <f>IF(_analysis_day_shift!C3="","",_analysis_day_shift!C3)</f>
+        <v/>
+      </c>
+      <c r="AK10" s="1" t="str">
+        <f>IF(_analysis_day_shift!C4="","",_analysis_day_shift!C4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="11" spans="2:37">
+    <row r="11" customFormat="1" spans="2:37">
       <c r="B11" s="13">
         <v>0.125</v>
       </c>
@@ -3444,11 +3450,20 @@
       <c r="AH11" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="45"/>
+      <c r="AI11" s="1" t="str">
+        <f>IF(_analysis_day_shift!D2="","",_analysis_day_shift!D2)</f>
+        <v/>
+      </c>
+      <c r="AJ11" s="1" t="str">
+        <f>IF(_analysis_day_shift!D3="","",_analysis_day_shift!D3)</f>
+        <v/>
+      </c>
+      <c r="AK11" s="1" t="str">
+        <f>IF(_analysis_day_shift!D4="","",_analysis_day_shift!D4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="12" spans="2:37">
+    <row r="12" customFormat="1" spans="2:37">
       <c r="B12" s="13">
         <v>0.166666666666667</v>
       </c>
@@ -3576,11 +3591,20 @@
       <c r="AH12" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="45"/>
+      <c r="AI12" s="1" t="str">
+        <f>IF(_analysis_day_shift!E2="","",_analysis_day_shift!E2)</f>
+        <v/>
+      </c>
+      <c r="AJ12" s="1" t="str">
+        <f>IF(_analysis_day_shift!E3="","",_analysis_day_shift!E3)</f>
+        <v/>
+      </c>
+      <c r="AK12" s="1" t="str">
+        <f>IF(_analysis_day_shift!E4="","",_analysis_day_shift!E4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="13" spans="2:37">
+    <row r="13" customFormat="1" spans="2:37">
       <c r="B13" s="13">
         <v>0.208333333333333</v>
       </c>
@@ -3708,11 +3732,20 @@
       <c r="AH13" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="45"/>
+      <c r="AI13" s="1" t="str">
+        <f>IF(_analysis_day_shift!F2="","",_analysis_day_shift!F2)</f>
+        <v/>
+      </c>
+      <c r="AJ13" s="1" t="str">
+        <f>IF(_analysis_day_shift!F3="","",_analysis_day_shift!F3)</f>
+        <v/>
+      </c>
+      <c r="AK13" s="1" t="str">
+        <f>IF(_analysis_day_shift!F4="","",_analysis_day_shift!F4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="14" spans="2:37">
+    <row r="14" customFormat="1" spans="2:37">
       <c r="B14" s="13">
         <v>0.25</v>
       </c>
@@ -3842,7 +3875,7 @@
       <c r="AJ14" s="49"/>
       <c r="AK14" s="50"/>
     </row>
-    <row r="15" spans="2:37">
+    <row r="15" customFormat="1" spans="2:37">
       <c r="B15" s="13">
         <v>0.291666666666667</v>
       </c>
@@ -3972,7 +4005,7 @@
       <c r="AJ15" s="52"/>
       <c r="AK15" s="53"/>
     </row>
-    <row r="16" spans="2:37">
+    <row r="16" customFormat="1" spans="2:37">
       <c r="B16" s="13">
         <v>0.333333333333333</v>
       </c>
@@ -4102,7 +4135,7 @@
       <c r="AJ16" s="52"/>
       <c r="AK16" s="53"/>
     </row>
-    <row r="17" spans="2:37">
+    <row r="17" customFormat="1" spans="2:37">
       <c r="B17" s="13">
         <v>0.375</v>
       </c>
@@ -4232,7 +4265,7 @@
       <c r="AJ17" s="52"/>
       <c r="AK17" s="53"/>
     </row>
-    <row r="18" spans="2:37">
+    <row r="18" customFormat="1" spans="2:37">
       <c r="B18" s="13">
         <v>0.416666666666666</v>
       </c>
@@ -4362,7 +4395,7 @@
       <c r="AJ18" s="52"/>
       <c r="AK18" s="53"/>
     </row>
-    <row r="19" spans="2:37">
+    <row r="19" customFormat="1" spans="2:37">
       <c r="B19" s="13">
         <v>0.458333333333333</v>
       </c>
@@ -4492,7 +4525,7 @@
       <c r="AJ19" s="52"/>
       <c r="AK19" s="53"/>
     </row>
-    <row r="20" spans="2:37">
+    <row r="20" customFormat="1" spans="2:37">
       <c r="B20" s="13">
         <v>0.5</v>
       </c>
@@ -4622,7 +4655,7 @@
       <c r="AJ20" s="52"/>
       <c r="AK20" s="53"/>
     </row>
-    <row r="21" spans="2:37">
+    <row r="21" customFormat="1" spans="2:37">
       <c r="B21" s="13">
         <v>0.541666666666666</v>
       </c>
@@ -4752,7 +4785,7 @@
       <c r="AJ21" s="52"/>
       <c r="AK21" s="53"/>
     </row>
-    <row r="22" spans="2:37">
+    <row r="22" customFormat="1" spans="2:37">
       <c r="B22" s="13">
         <v>0.583333333333333</v>
       </c>
@@ -4882,7 +4915,7 @@
       <c r="AJ22" s="52"/>
       <c r="AK22" s="53"/>
     </row>
-    <row r="23" spans="2:37">
+    <row r="23" customFormat="1" spans="2:37">
       <c r="B23" s="13">
         <v>0.625</v>
       </c>
@@ -5012,7 +5045,7 @@
       <c r="AJ23" s="52"/>
       <c r="AK23" s="53"/>
     </row>
-    <row r="24" spans="2:37">
+    <row r="24" customFormat="1" spans="2:37">
       <c r="B24" s="13">
         <v>0.666666666666667</v>
       </c>
@@ -5142,7 +5175,7 @@
       <c r="AJ24" s="52"/>
       <c r="AK24" s="53"/>
     </row>
-    <row r="25" spans="2:37">
+    <row r="25" customFormat="1" spans="2:37">
       <c r="B25" s="13">
         <v>0.708333333333333</v>
       </c>
@@ -5272,7 +5305,7 @@
       <c r="AJ25" s="52"/>
       <c r="AK25" s="53"/>
     </row>
-    <row r="26" spans="2:37">
+    <row r="26" customFormat="1" spans="2:37">
       <c r="B26" s="13">
         <v>0.75</v>
       </c>
@@ -5402,7 +5435,7 @@
       <c r="AJ26" s="52"/>
       <c r="AK26" s="53"/>
     </row>
-    <row r="27" spans="2:37">
+    <row r="27" customFormat="1" spans="2:37">
       <c r="B27" s="13">
         <v>0.791666666666667</v>
       </c>
@@ -5532,7 +5565,7 @@
       <c r="AJ27" s="52"/>
       <c r="AK27" s="53"/>
     </row>
-    <row r="28" spans="2:37">
+    <row r="28" customFormat="1" spans="2:37">
       <c r="B28" s="13">
         <v>0.833333333333333</v>
       </c>
@@ -5662,7 +5695,7 @@
       <c r="AJ28" s="52"/>
       <c r="AK28" s="53"/>
     </row>
-    <row r="29" spans="2:37">
+    <row r="29" customFormat="1" spans="2:37">
       <c r="B29" s="13">
         <v>0.875</v>
       </c>
@@ -5792,7 +5825,7 @@
       <c r="AJ29" s="52"/>
       <c r="AK29" s="53"/>
     </row>
-    <row r="30" spans="2:37">
+    <row r="30" customFormat="1" spans="2:37">
       <c r="B30" s="13">
         <v>0.916666666666667</v>
       </c>
@@ -5922,7 +5955,7 @@
       <c r="AJ30" s="52"/>
       <c r="AK30" s="53"/>
     </row>
-    <row r="31" spans="2:37">
+    <row r="31" customFormat="1" spans="2:37">
       <c r="B31" s="13">
         <v>0.958333333333333</v>
       </c>
@@ -6052,7 +6085,7 @@
       <c r="AJ31" s="52"/>
       <c r="AK31" s="53"/>
     </row>
-    <row r="32" spans="2:37">
+    <row r="32" customFormat="1" spans="2:37">
       <c r="B32" s="14" t="s">
         <v>86</v>
       </c>
@@ -6092,7 +6125,7 @@
       <c r="AJ32" s="52"/>
       <c r="AK32" s="53"/>
     </row>
-    <row r="33" spans="2:37">
+    <row r="33" customFormat="1" spans="2:37">
       <c r="B33" s="14" t="s">
         <v>87</v>
       </c>
@@ -6132,7 +6165,7 @@
       <c r="AJ33" s="52"/>
       <c r="AK33" s="53"/>
     </row>
-    <row r="34" spans="2:37">
+    <row r="34" customFormat="1" spans="2:37">
       <c r="B34" s="14" t="s">
         <v>88</v>
       </c>
@@ -6172,7 +6205,7 @@
       <c r="AJ34" s="52"/>
       <c r="AK34" s="53"/>
     </row>
-    <row r="35" ht="14.25" spans="2:37">
+    <row r="35" customFormat="1" ht="14.25" spans="2:37">
       <c r="B35" s="14" t="s">
         <v>89</v>
       </c>
@@ -6212,7 +6245,7 @@
       <c r="AJ35" s="52"/>
       <c r="AK35" s="53"/>
     </row>
-    <row r="36" ht="75.6" customHeight="1" spans="2:37">
+    <row r="36" customFormat="1" ht="75.6" customHeight="1" spans="2:37">
       <c r="B36" s="15" t="s">
         <v>90</v>
       </c>
@@ -6301,11 +6334,10 @@
       <c r="AK37" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="48">
     <mergeCell ref="B1:AG1"/>
     <mergeCell ref="B2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="O2:S2"/>
     <mergeCell ref="T2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="C3:AF3"/>
@@ -6369,7 +6401,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" customFormat="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -6489,7 +6521,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excel/finished/焦化/CK67-粗苯蒸馏（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-粗苯蒸馏（日）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5.粗苯蒸馏（日）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t xml:space="preserve"> 粗 苯 蒸 馏 操 作 记 录</t>
   </si>
@@ -535,16 +535,31 @@
       <t>接班：</t>
     </r>
   </si>
+  <si>
+    <t>MCB/密度</t>
+  </si>
+  <si>
+    <t>MCB/初馏点</t>
+  </si>
+  <si>
+    <t>MCB/180℃前馏出量</t>
+  </si>
+  <si>
+    <t>MCB/H2O</t>
+  </si>
+  <si>
+    <t>MCB/Cl</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -616,55 +631,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -680,8 +670,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -697,54 +766,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -753,13 +775,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,19 +818,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,25 +860,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,25 +884,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,19 +902,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,19 +950,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,49 +980,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,30 +1375,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1399,6 +1390,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1420,6 +1420,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1429,11 +1438,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1456,8 +1471,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1467,10 +1482,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1479,136 +1494,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -2463,8 +2478,8 @@
   <sheetPr/>
   <dimension ref="B1:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:S2"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8:AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6518,14 +6533,32 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="C1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="3:7">
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/excel/finished/焦化/CK67-粗苯蒸馏（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-粗苯蒸馏（日）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="5.粗苯蒸馏（日）" sheetId="1" r:id="rId1"/>
@@ -556,9 +556,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
@@ -631,9 +631,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,8 +667,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,29 +691,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,21 +704,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -716,22 +712,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -743,17 +727,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -774,7 +766,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,7 +818,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,103 +836,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,13 +866,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,37 +992,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,30 +1375,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1421,34 +1397,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1476,16 +1435,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1494,136 +1494,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -2478,8 +2478,8 @@
   <sheetPr/>
   <dimension ref="B1:AK37"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8:AH13"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6535,7 +6535,7 @@
   <sheetPr/>
   <dimension ref="C1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>

--- a/excel/finished/焦化/CK67-粗苯蒸馏（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-粗苯蒸馏（日）报表设计.xlsx
@@ -4,20 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="5.粗苯蒸馏（日）" sheetId="1" r:id="rId1"/>
     <sheet name="_cuben_day_hour" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
-    <sheet name="_analysis_day_shift" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t xml:space="preserve"> 粗 苯 蒸 馏 操 作 记 录</t>
   </si>
@@ -535,21 +533,6 @@
       <t>接班：</t>
     </r>
   </si>
-  <si>
-    <t>MCB/密度</t>
-  </si>
-  <si>
-    <t>MCB/初馏点</t>
-  </si>
-  <si>
-    <t>MCB/180℃前馏出量</t>
-  </si>
-  <si>
-    <t>MCB/H2O</t>
-  </si>
-  <si>
-    <t>MCB/Cl</t>
-  </si>
 </sst>
 </file>
 
@@ -558,10 +541,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,8 +559,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -613,6 +603,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -626,33 +621,26 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,16 +655,29 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,6 +690,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -704,30 +718,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,15 +735,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,31 +757,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -818,18 +806,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -842,7 +818,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,145 +986,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,15 +1027,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
     <border diagonalDown="1">
       <left style="medium">
         <color auto="1"/>
@@ -1266,6 +1245,15 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -1406,8 +1394,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1429,45 +1456,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1482,10 +1470,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1494,140 +1482,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1637,81 +1625,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1721,19 +1718,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1742,7 +1736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1750,8 +1744,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2082,7 +2076,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -2478,8 +2472,8 @@
   <sheetPr/>
   <dimension ref="B1:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2527,293 +2521,290 @@
     </row>
     <row r="2" customFormat="1" ht="16.5" spans="2:33">
       <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="19" t="str">
-        <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v/>
-      </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
     </row>
     <row r="3" customFormat="1" ht="14.1" customHeight="1" spans="2:37">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="36" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="38"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="40"/>
     </row>
     <row r="4" customFormat="1" spans="2:37">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9" t="s">
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9" t="s">
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="10" t="s">
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AB4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AC4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AD4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AE4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="41"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="43"/>
     </row>
     <row r="5" customFormat="1" spans="2:37">
-      <c r="B5" s="8"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="U5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="25" t="s">
+      <c r="X5" s="12"/>
+      <c r="Y5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="10" t="s">
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AF5" s="29" t="s">
+      <c r="AF5" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="43"/>
     </row>
     <row r="6" customFormat="1" ht="22.5" spans="2:37">
-      <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="25" t="s">
+      <c r="K6" s="13"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="X6" s="25" t="s">
+      <c r="X6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" s="25" t="s">
+      <c r="Y6" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Z6" s="25" t="s">
+      <c r="Z6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="42" t="s">
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="44" t="s">
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="46" t="s">
         <v>45</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AK6" s="45" t="s">
+      <c r="AK6" s="47" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="24" customHeight="1" spans="2:37">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2906,14 +2897,14 @@
       <c r="AF7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG7" s="46"/>
+      <c r="AG7" s="48"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
-      <c r="AK7" s="45"/>
+      <c r="AK7" s="47"/>
     </row>
     <row r="8" customFormat="1" spans="2:37">
-      <c r="B8" s="13">
+      <c r="B8" s="15">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="str">
@@ -3036,27 +3027,18 @@
         <f>IF(_cuben_day_hour!AD2="","",_cuben_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG8" s="39" t="s">
+      <c r="AG8" s="41" t="s">
         <v>79</v>
       </c>
       <c r="AH8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AI8" s="1" t="str">
-        <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
-        <v/>
-      </c>
-      <c r="AJ8" s="1" t="str">
-        <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
-        <v/>
-      </c>
-      <c r="AK8" s="1" t="str">
-        <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
-        <v/>
-      </c>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="47"/>
     </row>
     <row r="9" customFormat="1" spans="2:37">
-      <c r="B9" s="13">
+      <c r="B9" s="15">
         <v>0.0416666666666667</v>
       </c>
       <c r="C9" s="1" t="str">
@@ -3179,25 +3161,16 @@
         <f>IF(_cuben_day_hour!AD3="","",_cuben_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="47" t="s">
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="AI9" s="1" t="str">
-        <f>IF(_analysis_day_shift!B2="","",_analysis_day_shift!B2)</f>
-        <v/>
-      </c>
-      <c r="AJ9" s="1" t="str">
-        <f>IF(_analysis_day_shift!B3="","",_analysis_day_shift!B3)</f>
-        <v/>
-      </c>
-      <c r="AK9" s="1" t="str">
-        <f>IF(_analysis_day_shift!B4="","",_analysis_day_shift!B4)</f>
-        <v/>
-      </c>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="47"/>
     </row>
     <row r="10" customFormat="1" spans="2:37">
-      <c r="B10" s="13">
+      <c r="B10" s="15">
         <v>0.0833333333333333</v>
       </c>
       <c r="C10" s="1" t="str">
@@ -3320,25 +3293,16 @@
         <f>IF(_cuben_day_hour!AD4="","",_cuben_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="47" t="s">
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="AI10" s="1" t="str">
-        <f>IF(_analysis_day_shift!C2="","",_analysis_day_shift!C2)</f>
-        <v/>
-      </c>
-      <c r="AJ10" s="1" t="str">
-        <f>IF(_analysis_day_shift!C3="","",_analysis_day_shift!C3)</f>
-        <v/>
-      </c>
-      <c r="AK10" s="1" t="str">
-        <f>IF(_analysis_day_shift!C4="","",_analysis_day_shift!C4)</f>
-        <v/>
-      </c>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="47"/>
     </row>
     <row r="11" customFormat="1" spans="2:37">
-      <c r="B11" s="13">
+      <c r="B11" s="15">
         <v>0.125</v>
       </c>
       <c r="C11" s="1" t="str">
@@ -3461,25 +3425,16 @@
         <f>IF(_cuben_day_hour!AD5="","",_cuben_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="47" t="s">
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="AI11" s="1" t="str">
-        <f>IF(_analysis_day_shift!D2="","",_analysis_day_shift!D2)</f>
-        <v/>
-      </c>
-      <c r="AJ11" s="1" t="str">
-        <f>IF(_analysis_day_shift!D3="","",_analysis_day_shift!D3)</f>
-        <v/>
-      </c>
-      <c r="AK11" s="1" t="str">
-        <f>IF(_analysis_day_shift!D4="","",_analysis_day_shift!D4)</f>
-        <v/>
-      </c>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="47"/>
     </row>
     <row r="12" customFormat="1" spans="2:37">
-      <c r="B12" s="13">
+      <c r="B12" s="15">
         <v>0.166666666666667</v>
       </c>
       <c r="C12" s="1" t="str">
@@ -3602,25 +3557,16 @@
         <f>IF(_cuben_day_hour!AD6="","",_cuben_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="47" t="s">
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="AI12" s="1" t="str">
-        <f>IF(_analysis_day_shift!E2="","",_analysis_day_shift!E2)</f>
-        <v/>
-      </c>
-      <c r="AJ12" s="1" t="str">
-        <f>IF(_analysis_day_shift!E3="","",_analysis_day_shift!E3)</f>
-        <v/>
-      </c>
-      <c r="AK12" s="1" t="str">
-        <f>IF(_analysis_day_shift!E4="","",_analysis_day_shift!E4)</f>
-        <v/>
-      </c>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="47"/>
     </row>
     <row r="13" customFormat="1" spans="2:37">
-      <c r="B13" s="13">
+      <c r="B13" s="15">
         <v>0.208333333333333</v>
       </c>
       <c r="C13" s="1" t="str">
@@ -3743,25 +3689,16 @@
         <f>IF(_cuben_day_hour!AD7="","",_cuben_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="47" t="s">
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="AI13" s="1" t="str">
-        <f>IF(_analysis_day_shift!F2="","",_analysis_day_shift!F2)</f>
-        <v/>
-      </c>
-      <c r="AJ13" s="1" t="str">
-        <f>IF(_analysis_day_shift!F3="","",_analysis_day_shift!F3)</f>
-        <v/>
-      </c>
-      <c r="AK13" s="1" t="str">
-        <f>IF(_analysis_day_shift!F4="","",_analysis_day_shift!F4)</f>
-        <v/>
-      </c>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="47"/>
     </row>
     <row r="14" customFormat="1" spans="2:37">
-      <c r="B14" s="13">
+      <c r="B14" s="15">
         <v>0.25</v>
       </c>
       <c r="C14" s="1" t="str">
@@ -3884,14 +3821,14 @@
         <f>IF(_cuben_day_hour!AD8="","",_cuben_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="49"/>
-      <c r="AK14" s="50"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="52"/>
     </row>
     <row r="15" customFormat="1" spans="2:37">
-      <c r="B15" s="13">
+      <c r="B15" s="15">
         <v>0.291666666666667</v>
       </c>
       <c r="C15" s="1" t="str">
@@ -4014,14 +3951,14 @@
         <f>IF(_cuben_day_hour!AD9="","",_cuben_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="52"/>
-      <c r="AI15" s="52"/>
-      <c r="AJ15" s="52"/>
-      <c r="AK15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="54"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="55"/>
     </row>
     <row r="16" customFormat="1" spans="2:37">
-      <c r="B16" s="13">
+      <c r="B16" s="15">
         <v>0.333333333333333</v>
       </c>
       <c r="C16" s="1" t="str">
@@ -4144,14 +4081,14 @@
         <f>IF(_cuben_day_hour!AD10="","",_cuben_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="52"/>
-      <c r="AI16" s="52"/>
-      <c r="AJ16" s="52"/>
-      <c r="AK16" s="53"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="54"/>
+      <c r="AI16" s="54"/>
+      <c r="AJ16" s="54"/>
+      <c r="AK16" s="55"/>
     </row>
     <row r="17" customFormat="1" spans="2:37">
-      <c r="B17" s="13">
+      <c r="B17" s="15">
         <v>0.375</v>
       </c>
       <c r="C17" s="1" t="str">
@@ -4274,14 +4211,14 @@
         <f>IF(_cuben_day_hour!AD11="","",_cuben_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG17" s="51"/>
-      <c r="AH17" s="52"/>
-      <c r="AI17" s="52"/>
-      <c r="AJ17" s="52"/>
-      <c r="AK17" s="53"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="55"/>
     </row>
     <row r="18" customFormat="1" spans="2:37">
-      <c r="B18" s="13">
+      <c r="B18" s="15">
         <v>0.416666666666666</v>
       </c>
       <c r="C18" s="1" t="str">
@@ -4404,14 +4341,14 @@
         <f>IF(_cuben_day_hour!AD12="","",_cuben_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="52"/>
-      <c r="AI18" s="52"/>
-      <c r="AJ18" s="52"/>
-      <c r="AK18" s="53"/>
+      <c r="AG18" s="53"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="55"/>
     </row>
     <row r="19" customFormat="1" spans="2:37">
-      <c r="B19" s="13">
+      <c r="B19" s="15">
         <v>0.458333333333333</v>
       </c>
       <c r="C19" s="1" t="str">
@@ -4534,14 +4471,14 @@
         <f>IF(_cuben_day_hour!AD13="","",_cuben_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="52"/>
-      <c r="AI19" s="52"/>
-      <c r="AJ19" s="52"/>
-      <c r="AK19" s="53"/>
+      <c r="AG19" s="53"/>
+      <c r="AH19" s="54"/>
+      <c r="AI19" s="54"/>
+      <c r="AJ19" s="54"/>
+      <c r="AK19" s="55"/>
     </row>
     <row r="20" customFormat="1" spans="2:37">
-      <c r="B20" s="13">
+      <c r="B20" s="15">
         <v>0.5</v>
       </c>
       <c r="C20" s="1" t="str">
@@ -4664,14 +4601,14 @@
         <f>IF(_cuben_day_hour!AD14="","",_cuben_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG20" s="51"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="52"/>
-      <c r="AJ20" s="52"/>
-      <c r="AK20" s="53"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="54"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="55"/>
     </row>
     <row r="21" customFormat="1" spans="2:37">
-      <c r="B21" s="13">
+      <c r="B21" s="15">
         <v>0.541666666666666</v>
       </c>
       <c r="C21" s="1" t="str">
@@ -4794,14 +4731,14 @@
         <f>IF(_cuben_day_hour!AD15="","",_cuben_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG21" s="51"/>
-      <c r="AH21" s="52"/>
-      <c r="AI21" s="52"/>
-      <c r="AJ21" s="52"/>
-      <c r="AK21" s="53"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="54"/>
+      <c r="AI21" s="54"/>
+      <c r="AJ21" s="54"/>
+      <c r="AK21" s="55"/>
     </row>
     <row r="22" customFormat="1" spans="2:37">
-      <c r="B22" s="13">
+      <c r="B22" s="15">
         <v>0.583333333333333</v>
       </c>
       <c r="C22" s="1" t="str">
@@ -4924,14 +4861,14 @@
         <f>IF(_cuben_day_hour!AD16="","",_cuben_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="52"/>
-      <c r="AI22" s="52"/>
-      <c r="AJ22" s="52"/>
-      <c r="AK22" s="53"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="54"/>
+      <c r="AI22" s="54"/>
+      <c r="AJ22" s="54"/>
+      <c r="AK22" s="55"/>
     </row>
     <row r="23" customFormat="1" spans="2:37">
-      <c r="B23" s="13">
+      <c r="B23" s="15">
         <v>0.625</v>
       </c>
       <c r="C23" s="1" t="str">
@@ -5054,14 +4991,14 @@
         <f>IF(_cuben_day_hour!AD17="","",_cuben_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG23" s="51"/>
-      <c r="AH23" s="52"/>
-      <c r="AI23" s="52"/>
-      <c r="AJ23" s="52"/>
-      <c r="AK23" s="53"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="54"/>
+      <c r="AI23" s="54"/>
+      <c r="AJ23" s="54"/>
+      <c r="AK23" s="55"/>
     </row>
     <row r="24" customFormat="1" spans="2:37">
-      <c r="B24" s="13">
+      <c r="B24" s="15">
         <v>0.666666666666667</v>
       </c>
       <c r="C24" s="1" t="str">
@@ -5184,14 +5121,14 @@
         <f>IF(_cuben_day_hour!AD18="","",_cuben_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG24" s="51"/>
-      <c r="AH24" s="52"/>
-      <c r="AI24" s="52"/>
-      <c r="AJ24" s="52"/>
-      <c r="AK24" s="53"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="54"/>
+      <c r="AI24" s="54"/>
+      <c r="AJ24" s="54"/>
+      <c r="AK24" s="55"/>
     </row>
     <row r="25" customFormat="1" spans="2:37">
-      <c r="B25" s="13">
+      <c r="B25" s="15">
         <v>0.708333333333333</v>
       </c>
       <c r="C25" s="1" t="str">
@@ -5314,14 +5251,14 @@
         <f>IF(_cuben_day_hour!AD19="","",_cuben_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="52"/>
-      <c r="AJ25" s="52"/>
-      <c r="AK25" s="53"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="54"/>
+      <c r="AI25" s="54"/>
+      <c r="AJ25" s="54"/>
+      <c r="AK25" s="55"/>
     </row>
     <row r="26" customFormat="1" spans="2:37">
-      <c r="B26" s="13">
+      <c r="B26" s="15">
         <v>0.75</v>
       </c>
       <c r="C26" s="1" t="str">
@@ -5444,14 +5381,14 @@
         <f>IF(_cuben_day_hour!AD20="","",_cuben_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="52"/>
-      <c r="AJ26" s="52"/>
-      <c r="AK26" s="53"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="54"/>
+      <c r="AJ26" s="54"/>
+      <c r="AK26" s="55"/>
     </row>
     <row r="27" customFormat="1" spans="2:37">
-      <c r="B27" s="13">
+      <c r="B27" s="15">
         <v>0.791666666666667</v>
       </c>
       <c r="C27" s="1" t="str">
@@ -5574,14 +5511,14 @@
         <f>IF(_cuben_day_hour!AD21="","",_cuben_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG27" s="51"/>
-      <c r="AH27" s="52"/>
-      <c r="AI27" s="52"/>
-      <c r="AJ27" s="52"/>
-      <c r="AK27" s="53"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="54"/>
+      <c r="AI27" s="54"/>
+      <c r="AJ27" s="54"/>
+      <c r="AK27" s="55"/>
     </row>
     <row r="28" customFormat="1" spans="2:37">
-      <c r="B28" s="13">
+      <c r="B28" s="15">
         <v>0.833333333333333</v>
       </c>
       <c r="C28" s="1" t="str">
@@ -5704,14 +5641,14 @@
         <f>IF(_cuben_day_hour!AD22="","",_cuben_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="52"/>
-      <c r="AI28" s="52"/>
-      <c r="AJ28" s="52"/>
-      <c r="AK28" s="53"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="54"/>
+      <c r="AI28" s="54"/>
+      <c r="AJ28" s="54"/>
+      <c r="AK28" s="55"/>
     </row>
     <row r="29" customFormat="1" spans="2:37">
-      <c r="B29" s="13">
+      <c r="B29" s="15">
         <v>0.875</v>
       </c>
       <c r="C29" s="1" t="str">
@@ -5834,14 +5771,14 @@
         <f>IF(_cuben_day_hour!AD23="","",_cuben_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="52"/>
-      <c r="AI29" s="52"/>
-      <c r="AJ29" s="52"/>
-      <c r="AK29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="54"/>
+      <c r="AI29" s="54"/>
+      <c r="AJ29" s="54"/>
+      <c r="AK29" s="55"/>
     </row>
     <row r="30" customFormat="1" spans="2:37">
-      <c r="B30" s="13">
+      <c r="B30" s="15">
         <v>0.916666666666667</v>
       </c>
       <c r="C30" s="1" t="str">
@@ -5964,14 +5901,14 @@
         <f>IF(_cuben_day_hour!AD24="","",_cuben_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG30" s="51"/>
-      <c r="AH30" s="52"/>
-      <c r="AI30" s="52"/>
-      <c r="AJ30" s="52"/>
-      <c r="AK30" s="53"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="54"/>
+      <c r="AI30" s="54"/>
+      <c r="AJ30" s="54"/>
+      <c r="AK30" s="55"/>
     </row>
     <row r="31" customFormat="1" spans="2:37">
-      <c r="B31" s="13">
+      <c r="B31" s="15">
         <v>0.958333333333333</v>
       </c>
       <c r="C31" s="1" t="str">
@@ -6094,14 +6031,14 @@
         <f>IF(_cuben_day_hour!AD25="","",_cuben_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG31" s="51"/>
-      <c r="AH31" s="52"/>
-      <c r="AI31" s="52"/>
-      <c r="AJ31" s="52"/>
-      <c r="AK31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="54"/>
+      <c r="AI31" s="54"/>
+      <c r="AJ31" s="54"/>
+      <c r="AK31" s="55"/>
     </row>
     <row r="32" customFormat="1" spans="2:37">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="16" t="s">
         <v>86</v>
       </c>
       <c r="C32" s="1"/>
@@ -6134,14 +6071,14 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="2"/>
-      <c r="AG32" s="51"/>
-      <c r="AH32" s="52"/>
-      <c r="AI32" s="52"/>
-      <c r="AJ32" s="52"/>
-      <c r="AK32" s="53"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="54"/>
+      <c r="AI32" s="54"/>
+      <c r="AJ32" s="54"/>
+      <c r="AK32" s="55"/>
     </row>
     <row r="33" customFormat="1" spans="2:37">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="16" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="1"/>
@@ -6174,14 +6111,14 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="2"/>
-      <c r="AG33" s="51"/>
-      <c r="AH33" s="52"/>
-      <c r="AI33" s="52"/>
-      <c r="AJ33" s="52"/>
-      <c r="AK33" s="53"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="54"/>
+      <c r="AI33" s="54"/>
+      <c r="AJ33" s="54"/>
+      <c r="AK33" s="55"/>
     </row>
     <row r="34" customFormat="1" spans="2:37">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="16" t="s">
         <v>88</v>
       </c>
       <c r="C34" s="1"/>
@@ -6214,14 +6151,14 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="51"/>
-      <c r="AH34" s="52"/>
-      <c r="AI34" s="52"/>
-      <c r="AJ34" s="52"/>
-      <c r="AK34" s="53"/>
+      <c r="AG34" s="53"/>
+      <c r="AH34" s="54"/>
+      <c r="AI34" s="54"/>
+      <c r="AJ34" s="54"/>
+      <c r="AK34" s="55"/>
     </row>
     <row r="35" customFormat="1" ht="14.25" spans="2:37">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="16" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="1"/>
@@ -6251,110 +6188,109 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="51"/>
-      <c r="AH35" s="52"/>
-      <c r="AI35" s="52"/>
-      <c r="AJ35" s="52"/>
-      <c r="AK35" s="53"/>
+      <c r="AD35" s="32"/>
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="53"/>
+      <c r="AH35" s="54"/>
+      <c r="AI35" s="54"/>
+      <c r="AJ35" s="54"/>
+      <c r="AK35" s="55"/>
     </row>
     <row r="36" customFormat="1" ht="75.6" customHeight="1" spans="2:37">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="21" t="s">
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="21" t="s">
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
-      <c r="AG36" s="52"/>
-      <c r="AH36" s="52"/>
-      <c r="AI36" s="52"/>
-      <c r="AJ36" s="52"/>
-      <c r="AK36" s="53"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="34"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="54"/>
+      <c r="AH36" s="54"/>
+      <c r="AI36" s="54"/>
+      <c r="AJ36" s="54"/>
+      <c r="AK36" s="55"/>
     </row>
     <row r="37" ht="16.5" spans="2:37">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="23" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="23" t="s">
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="35"/>
-      <c r="AF37" s="35"/>
-      <c r="AG37" s="35"/>
-      <c r="AH37" s="35"/>
-      <c r="AI37" s="35"/>
-      <c r="AJ37" s="35"/>
-      <c r="AK37" s="54"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="37"/>
+      <c r="AF37" s="37"/>
+      <c r="AG37" s="37"/>
+      <c r="AH37" s="37"/>
+      <c r="AI37" s="37"/>
+      <c r="AJ37" s="37"/>
+      <c r="AK37" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="47">
     <mergeCell ref="B1:AG1"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="K2:Y2"/>
+    <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="C3:AF3"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="K4:O4"/>
@@ -6512,54 +6448,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
-  <sheetData>
-    <row r="1" spans="3:7">
-      <c r="C1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>